--- a/R/data/quiz240909_tmp.xlsx
+++ b/R/data/quiz240909_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2867" uniqueCount="740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3614" uniqueCount="912">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2231,6 +2231,522 @@
   </si>
   <si>
     <t>김병일</t>
+  </si>
+  <si>
+    <t>inheo0428@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">허인 </t>
+  </si>
+  <si>
+    <t>jyl06070@naver.com</t>
+  </si>
+  <si>
+    <t>언론방송융합학과</t>
+  </si>
+  <si>
+    <t>장유림</t>
+  </si>
+  <si>
+    <t>kimteawan347@gmail.com</t>
+  </si>
+  <si>
+    <t>김태완</t>
+  </si>
+  <si>
+    <t>dbsduwls691@naver.com</t>
+  </si>
+  <si>
+    <t>윤여진</t>
+  </si>
+  <si>
+    <t>ansk999@gmail.com</t>
+  </si>
+  <si>
+    <t>위수현</t>
+  </si>
+  <si>
+    <t>a01051265769@gmail.com</t>
+  </si>
+  <si>
+    <t>안현영</t>
+  </si>
+  <si>
+    <t>anfytlrtk3@naver.com</t>
+  </si>
+  <si>
+    <t>윤가영</t>
+  </si>
+  <si>
+    <t>hm703711@gmail.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어학과</t>
+  </si>
+  <si>
+    <t>박현민</t>
+  </si>
+  <si>
+    <t>imhyeongu00@gmail.com</t>
+  </si>
+  <si>
+    <t>언론방송융합미디어전공</t>
+  </si>
+  <si>
+    <t>임현구</t>
+  </si>
+  <si>
+    <t>bvc023@naver.com</t>
+  </si>
+  <si>
+    <t>김수영</t>
+  </si>
+  <si>
+    <t>huiju4684@naver.com</t>
+  </si>
+  <si>
+    <t>강희주</t>
+  </si>
+  <si>
+    <t>ydchufd@naver.com</t>
+  </si>
+  <si>
+    <t>정유민</t>
+  </si>
+  <si>
+    <t>jaekyung001203@gmail.com</t>
+  </si>
+  <si>
+    <t>안재경</t>
+  </si>
+  <si>
+    <t>iaan0104@naver.com</t>
+  </si>
+  <si>
+    <t>조이안</t>
+  </si>
+  <si>
+    <t>4080jjh@gmail.com</t>
+  </si>
+  <si>
+    <t>장재환</t>
+  </si>
+  <si>
+    <t>seokwony123@gmail.com</t>
+  </si>
+  <si>
+    <t>양석원</t>
+  </si>
+  <si>
+    <t>yerimyerim11@naver.com</t>
+  </si>
+  <si>
+    <t>이예림</t>
+  </si>
+  <si>
+    <t>jangsinhyeog6@gmail.com</t>
+  </si>
+  <si>
+    <t>장신혁</t>
+  </si>
+  <si>
+    <t>jinhee1082@naver.com</t>
+  </si>
+  <si>
+    <t>박진희</t>
+  </si>
+  <si>
+    <t>gomdolri05@naver.com</t>
+  </si>
+  <si>
+    <t>이아영</t>
+  </si>
+  <si>
+    <t>twenty__dec@naver.com</t>
+  </si>
+  <si>
+    <t>채희주</t>
+  </si>
+  <si>
+    <t>tomas313@naver.com</t>
+  </si>
+  <si>
+    <t>라태민</t>
+  </si>
+  <si>
+    <t>dawn2368@gmail.com</t>
+  </si>
+  <si>
+    <t>허다운</t>
+  </si>
+  <si>
+    <t>riveenine369@naver.com</t>
+  </si>
+  <si>
+    <t>강재구</t>
+  </si>
+  <si>
+    <t>jerryterryharry@gmail.com</t>
+  </si>
+  <si>
+    <t>문진영</t>
+  </si>
+  <si>
+    <t>kter0506@naver.com</t>
+  </si>
+  <si>
+    <t>김태은</t>
+  </si>
+  <si>
+    <t>gangjunu@naver.com</t>
+  </si>
+  <si>
+    <t>강준우</t>
+  </si>
+  <si>
+    <t>minchan6020@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">김민찬 </t>
+  </si>
+  <si>
+    <t>dlaehdghks123@gmail.com</t>
+  </si>
+  <si>
+    <t>임동환</t>
+  </si>
+  <si>
+    <t>kty030122@gmail.com</t>
+  </si>
+  <si>
+    <t>김태연</t>
+  </si>
+  <si>
+    <t>httv08@naver.com</t>
+  </si>
+  <si>
+    <t>전현태</t>
+  </si>
+  <si>
+    <t>minjeongkim329@gmail.com</t>
+  </si>
+  <si>
+    <t>sys930301@gmail.com</t>
+  </si>
+  <si>
+    <t>손연수</t>
+  </si>
+  <si>
+    <t>y5het3e@naver.com</t>
+  </si>
+  <si>
+    <t>박재근</t>
+  </si>
+  <si>
+    <t>hyeonse0@naver.com</t>
+  </si>
+  <si>
+    <t>황현서</t>
+  </si>
+  <si>
+    <t>sueuisa04@gmail.com</t>
+  </si>
+  <si>
+    <t>신동윤</t>
+  </si>
+  <si>
+    <t>erang051216@naver.com</t>
+  </si>
+  <si>
+    <t>박이랑</t>
+  </si>
+  <si>
+    <t>skyhaneul0910@naver.com</t>
+  </si>
+  <si>
+    <t>권하늘</t>
+  </si>
+  <si>
+    <t>junyeong@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>박준영</t>
+  </si>
+  <si>
+    <t>blake4102@naver.com</t>
+  </si>
+  <si>
+    <t>김원래</t>
+  </si>
+  <si>
+    <t>kdk3265@naver.com</t>
+  </si>
+  <si>
+    <t>강은비</t>
+  </si>
+  <si>
+    <t>yssong1919@naver.com</t>
+  </si>
+  <si>
+    <t>송예상</t>
+  </si>
+  <si>
+    <t>guj2205146@gmail.com</t>
+  </si>
+  <si>
+    <t>강의주</t>
+  </si>
+  <si>
+    <t>swncelt@naver.com</t>
+  </si>
+  <si>
+    <t>박은서</t>
+  </si>
+  <si>
+    <t>jin0321558@gmail.com</t>
+  </si>
+  <si>
+    <t>전시연</t>
+  </si>
+  <si>
+    <t>ksy91637@naver.com</t>
+  </si>
+  <si>
+    <t>스마트IOT</t>
+  </si>
+  <si>
+    <t>김성열</t>
+  </si>
+  <si>
+    <t>mt1661@naver.com</t>
+  </si>
+  <si>
+    <t>콘탠츠IT</t>
+  </si>
+  <si>
+    <t>정성민</t>
+  </si>
+  <si>
+    <t>yumi0901gami@gmail.com</t>
+  </si>
+  <si>
+    <t>jjww74@naver.com</t>
+  </si>
+  <si>
+    <t>최재원</t>
+  </si>
+  <si>
+    <t>schoe357@gmail.com</t>
+  </si>
+  <si>
+    <t>최성민</t>
+  </si>
+  <si>
+    <t>yxnjxn0331@gmail.com</t>
+  </si>
+  <si>
+    <t>배윤진</t>
+  </si>
+  <si>
+    <t>jiminn101777@gmail.com</t>
+  </si>
+  <si>
+    <t>권지민</t>
+  </si>
+  <si>
+    <t>mjjb1102@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">이민재 </t>
+  </si>
+  <si>
+    <t>paulcho1004@naver.com</t>
+  </si>
+  <si>
+    <t>조민형</t>
+  </si>
+  <si>
+    <t>ji040414@naver.com</t>
+  </si>
+  <si>
+    <t>최윤지</t>
+  </si>
+  <si>
+    <t>hhr0408@naver.com</t>
+  </si>
+  <si>
+    <t>한혜령</t>
+  </si>
+  <si>
+    <t>buj5195193@naver.com</t>
+  </si>
+  <si>
+    <t>백유진</t>
+  </si>
+  <si>
+    <t>lyjo0823@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠IT학과</t>
+  </si>
+  <si>
+    <t>이연주</t>
+  </si>
+  <si>
+    <t>eomjh2005@naver.com</t>
+  </si>
+  <si>
+    <t>엄지희</t>
+  </si>
+  <si>
+    <t>his86814189@gmail.com</t>
+  </si>
+  <si>
+    <t>황인성</t>
+  </si>
+  <si>
+    <t>dltlgus1119@naver.com</t>
+  </si>
+  <si>
+    <t>이시현</t>
+  </si>
+  <si>
+    <t>leeyelim0320@gmail.com</t>
+  </si>
+  <si>
+    <t>lucy37lucy37lucy37@naver.com</t>
+  </si>
+  <si>
+    <t>이은지</t>
+  </si>
+  <si>
+    <t>ereere05@naver.com</t>
+  </si>
+  <si>
+    <t>황은상</t>
+  </si>
+  <si>
+    <t>jin050828@gmail.com</t>
+  </si>
+  <si>
+    <t>김진영</t>
+  </si>
+  <si>
+    <t>kesha11@naver.com</t>
+  </si>
+  <si>
+    <t>윤주호</t>
+  </si>
+  <si>
+    <t>ab47cd32@gmail.com</t>
+  </si>
+  <si>
+    <t>우로겸</t>
+  </si>
+  <si>
+    <t>ataraxia050508@naver.com</t>
+  </si>
+  <si>
+    <t>박정호</t>
+  </si>
+  <si>
+    <t>sojunghanbomul@naver.com</t>
+  </si>
+  <si>
+    <t>김상준</t>
+  </si>
+  <si>
+    <t>simyenho8562@gmail.com</t>
+  </si>
+  <si>
+    <t>심연호</t>
+  </si>
+  <si>
+    <t>20242925@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>경영학부</t>
+  </si>
+  <si>
+    <t>김민우</t>
+  </si>
+  <si>
+    <t>sehyeon0330@gmail.com</t>
+  </si>
+  <si>
+    <t>김세현</t>
+  </si>
+  <si>
+    <t>houng5011@naver.com</t>
+  </si>
+  <si>
+    <t>홍성원</t>
+  </si>
+  <si>
+    <t>harypoter8947@gmail.com</t>
+  </si>
+  <si>
+    <t>영어영문</t>
+  </si>
+  <si>
+    <t>김석희</t>
+  </si>
+  <si>
+    <t>1202kge@naver.com</t>
+  </si>
+  <si>
+    <t>김가은</t>
+  </si>
+  <si>
+    <t>ryul1128@naver.com</t>
+  </si>
+  <si>
+    <t>김률아</t>
+  </si>
+  <si>
+    <t>hg2635394@gmail.com</t>
+  </si>
+  <si>
+    <t>철학과</t>
+  </si>
+  <si>
+    <t>taehwankim05@gmail.com</t>
+  </si>
+  <si>
+    <t>김태환</t>
+  </si>
+  <si>
+    <t>leedug87@gmail.com</t>
+  </si>
+  <si>
+    <t>이두현</t>
+  </si>
+  <si>
+    <t>abc6518@gmail.com</t>
+  </si>
+  <si>
+    <t>반도체학과</t>
+  </si>
+  <si>
+    <t>박상준</t>
+  </si>
+  <si>
+    <t>h20201721@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>유지원</t>
+  </si>
+  <si>
+    <t>jiah1622@naver.com</t>
+  </si>
+  <si>
+    <t>최지아</t>
+  </si>
+  <si>
+    <t>hyeonjin0976@gmail.com</t>
+  </si>
+  <si>
+    <t>류현진</t>
   </si>
 </sst>
 </file>
@@ -2261,7 +2777,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -2394,10 +2910,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2405,13 +2921,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2421,7 +2951,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -2477,6 +3007,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -2537,7 +3070,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N318" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N401" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -15780,44 +16313,3447 @@
       </c>
     </row>
     <row r="318">
-      <c r="A318" s="17">
+      <c r="A318" s="11">
         <v>45549.28632329861</v>
       </c>
-      <c r="B318" s="18" t="s">
+      <c r="B318" s="12" t="s">
         <v>738</v>
       </c>
-      <c r="C318" s="18" t="s">
+      <c r="C318" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="D318" s="18">
+      <c r="D318" s="12">
         <v>2.0191604E7</v>
       </c>
-      <c r="E318" s="18" t="s">
+      <c r="E318" s="12" t="s">
         <v>739</v>
       </c>
-      <c r="F318" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G318" s="18" t="s">
+      <c r="F318" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G318" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H318" s="18">
-        <v>2017.0</v>
-      </c>
-      <c r="I318" s="18">
+      <c r="H318" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I318" s="12">
         <v>2018.0</v>
       </c>
-      <c r="J318" s="18" t="s">
+      <c r="J318" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="K318" s="18" t="s">
+      <c r="K318" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L318" s="18" t="s">
+      <c r="L318" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="M318" s="18" t="s">
+      <c r="M318" s="12" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="13">
+        <v>45549.35975395833</v>
+      </c>
+      <c r="B319" s="14" t="s">
+        <v>740</v>
+      </c>
+      <c r="C319" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D319" s="14">
+        <v>2.0242358E7</v>
+      </c>
+      <c r="E319" s="14" t="s">
+        <v>741</v>
+      </c>
+      <c r="F319" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G319" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H319" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I319" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J319" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K319" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L319" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N319" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="11">
+        <v>45549.40198646991</v>
+      </c>
+      <c r="B320" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="C320" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="D320" s="12">
+        <v>2.0212749E7</v>
+      </c>
+      <c r="E320" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="F320" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G320" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H320" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I320" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J320" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K320" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L320" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N320" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="13">
+        <v>45549.47638784722</v>
+      </c>
+      <c r="B321" s="14" t="s">
+        <v>745</v>
+      </c>
+      <c r="C321" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D321" s="14">
+        <v>2.0212613E7</v>
+      </c>
+      <c r="E321" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="F321" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G321" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H321" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I321" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J321" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K321" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L321" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M321" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="11">
+        <v>45549.477236886574</v>
+      </c>
+      <c r="B322" s="12" t="s">
+        <v>747</v>
+      </c>
+      <c r="C322" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D322" s="12">
+        <v>2.0191623E7</v>
+      </c>
+      <c r="E322" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="F322" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G322" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H322" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I322" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J322" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K322" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L322" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N322" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="13">
+        <v>45549.55776863426</v>
+      </c>
+      <c r="B323" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="C323" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D323" s="14">
+        <v>2.0202736E7</v>
+      </c>
+      <c r="E323" s="14" t="s">
+        <v>750</v>
+      </c>
+      <c r="F323" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G323" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H323" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I323" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J323" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K323" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L323" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N323" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="11">
+        <v>45549.569528113425</v>
+      </c>
+      <c r="B324" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="C324" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D324" s="12">
+        <v>2.02434134E8</v>
+      </c>
+      <c r="E324" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="F324" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G324" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H324" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I324" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J324" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K324" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L324" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N324" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="13">
+        <v>45549.57327366898</v>
+      </c>
+      <c r="B325" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="C325" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D325" s="14">
+        <v>2.024383E7</v>
+      </c>
+      <c r="E325" s="14" t="s">
+        <v>754</v>
+      </c>
+      <c r="F325" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G325" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H325" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I325" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J325" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K325" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L325" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M325" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="11">
+        <v>45549.57695422454</v>
+      </c>
+      <c r="B326" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="C326" s="12" t="s">
+        <v>756</v>
+      </c>
+      <c r="D326" s="12">
+        <v>2.0202415E7</v>
+      </c>
+      <c r="E326" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="F326" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G326" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H326" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I326" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J326" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K326" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L326" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N326" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="13">
+        <v>45549.59856186343</v>
+      </c>
+      <c r="B327" s="14" t="s">
+        <v>758</v>
+      </c>
+      <c r="C327" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="D327" s="14">
+        <v>2.0192575E7</v>
+      </c>
+      <c r="E327" s="14" t="s">
+        <v>760</v>
+      </c>
+      <c r="F327" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G327" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H327" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I327" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J327" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K327" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L327" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M327" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="11">
+        <v>45549.61646789352</v>
+      </c>
+      <c r="B328" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="C328" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D328" s="12">
+        <v>2.0217035E7</v>
+      </c>
+      <c r="E328" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="F328" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G328" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H328" s="12">
+        <v>2012.0</v>
+      </c>
+      <c r="I328" s="12">
+        <v>2019.0</v>
+      </c>
+      <c r="J328" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K328" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L328" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M328" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="13">
+        <v>45549.63609003472</v>
+      </c>
+      <c r="B329" s="14" t="s">
+        <v>763</v>
+      </c>
+      <c r="C329" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D329" s="14">
+        <v>2.0217097E7</v>
+      </c>
+      <c r="E329" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="F329" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G329" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H329" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I329" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J329" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K329" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L329" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N329" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="11">
+        <v>45549.64385756945</v>
+      </c>
+      <c r="B330" s="12" t="s">
+        <v>765</v>
+      </c>
+      <c r="C330" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D330" s="12">
+        <v>2.0242363E7</v>
+      </c>
+      <c r="E330" s="12" t="s">
+        <v>766</v>
+      </c>
+      <c r="F330" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G330" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H330" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I330" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J330" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K330" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L330" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M330" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="13">
+        <v>45549.65221390047</v>
+      </c>
+      <c r="B331" s="14" t="s">
+        <v>767</v>
+      </c>
+      <c r="C331" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D331" s="14">
+        <v>2.021323E7</v>
+      </c>
+      <c r="E331" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="F331" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G331" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H331" s="14">
+        <v>2012.0</v>
+      </c>
+      <c r="I331" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J331" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K331" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L331" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N331" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="11">
+        <v>45549.652656192135</v>
+      </c>
+      <c r="B332" s="12" t="s">
+        <v>769</v>
+      </c>
+      <c r="C332" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D332" s="12">
+        <v>2.0245259E7</v>
+      </c>
+      <c r="E332" s="12" t="s">
+        <v>770</v>
+      </c>
+      <c r="F332" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="G332" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H332" s="12">
+        <v>2022.0</v>
+      </c>
+      <c r="I332" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J332" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K332" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L332" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M332" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="13">
+        <v>45549.655833807876</v>
+      </c>
+      <c r="B333" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="C333" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D333" s="14">
+        <v>2.0182436E7</v>
+      </c>
+      <c r="E333" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="F333" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G333" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H333" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I333" s="14">
+        <v>2021.0</v>
+      </c>
+      <c r="J333" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K333" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L333" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M333" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="11">
+        <v>45549.66196456019</v>
+      </c>
+      <c r="B334" s="12" t="s">
+        <v>773</v>
+      </c>
+      <c r="C334" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D334" s="12">
+        <v>2.0243721E7</v>
+      </c>
+      <c r="E334" s="12" t="s">
+        <v>774</v>
+      </c>
+      <c r="F334" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G334" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H334" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I334" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J334" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K334" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L334" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M334" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="13">
+        <v>45549.66250884259</v>
+      </c>
+      <c r="B335" s="14" t="s">
+        <v>775</v>
+      </c>
+      <c r="C335" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D335" s="14">
+        <v>2.0231532E7</v>
+      </c>
+      <c r="E335" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="F335" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G335" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H335" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I335" s="14">
+        <v>2019.0</v>
+      </c>
+      <c r="J335" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K335" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L335" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N335" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="11">
+        <v>45549.67164598379</v>
+      </c>
+      <c r="B336" s="12" t="s">
+        <v>777</v>
+      </c>
+      <c r="C336" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D336" s="12">
+        <v>2.0246768E7</v>
+      </c>
+      <c r="E336" s="12" t="s">
+        <v>778</v>
+      </c>
+      <c r="F336" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G336" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H336" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I336" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J336" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K336" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L336" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N336" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="13">
+        <v>45549.674797141204</v>
+      </c>
+      <c r="B337" s="14" t="s">
+        <v>779</v>
+      </c>
+      <c r="C337" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="D337" s="14">
+        <v>2.022253E7</v>
+      </c>
+      <c r="E337" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="F337" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G337" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H337" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I337" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J337" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K337" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L337" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N337" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="11">
+        <v>45549.70233349537</v>
+      </c>
+      <c r="B338" s="12" t="s">
+        <v>781</v>
+      </c>
+      <c r="C338" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D338" s="12">
+        <v>2.0242227E7</v>
+      </c>
+      <c r="E338" s="12" t="s">
+        <v>782</v>
+      </c>
+      <c r="F338" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G338" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H338" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I338" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J338" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K338" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L338" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M338" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="13">
+        <v>45549.70741362269</v>
+      </c>
+      <c r="B339" s="14" t="s">
+        <v>783</v>
+      </c>
+      <c r="C339" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D339" s="14">
+        <v>2.0243959E7</v>
+      </c>
+      <c r="E339" s="14" t="s">
+        <v>784</v>
+      </c>
+      <c r="F339" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G339" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H339" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I339" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J339" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K339" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L339" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N339" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="11">
+        <v>45549.71299980324</v>
+      </c>
+      <c r="B340" s="12" t="s">
+        <v>785</v>
+      </c>
+      <c r="C340" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D340" s="12">
+        <v>2.0214116E7</v>
+      </c>
+      <c r="E340" s="12" t="s">
+        <v>786</v>
+      </c>
+      <c r="F340" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G340" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H340" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I340" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J340" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K340" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L340" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M340" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="13">
+        <v>45549.74228303241</v>
+      </c>
+      <c r="B341" s="14" t="s">
+        <v>787</v>
+      </c>
+      <c r="C341" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D341" s="14">
+        <v>2.0197126E7</v>
+      </c>
+      <c r="E341" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="F341" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G341" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="H341" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I341" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J341" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K341" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L341" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M341" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="11">
+        <v>45549.74909336805</v>
+      </c>
+      <c r="B342" s="12" t="s">
+        <v>789</v>
+      </c>
+      <c r="C342" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D342" s="12">
+        <v>2.0212801E7</v>
+      </c>
+      <c r="E342" s="12" t="s">
+        <v>790</v>
+      </c>
+      <c r="F342" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G342" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H342" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I342" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J342" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K342" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L342" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N342" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="13">
+        <v>45549.757224189816</v>
+      </c>
+      <c r="B343" s="14" t="s">
+        <v>791</v>
+      </c>
+      <c r="C343" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D343" s="14">
+        <v>2.0205162E7</v>
+      </c>
+      <c r="E343" s="14" t="s">
+        <v>792</v>
+      </c>
+      <c r="F343" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G343" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H343" s="14">
+        <v>2027.0</v>
+      </c>
+      <c r="I343" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J343" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K343" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L343" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M343" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="11">
+        <v>45549.76305375</v>
+      </c>
+      <c r="B344" s="12" t="s">
+        <v>793</v>
+      </c>
+      <c r="C344" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D344" s="12">
+        <v>2.0243813E7</v>
+      </c>
+      <c r="E344" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="F344" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G344" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H344" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I344" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J344" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K344" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L344" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N344" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="13">
+        <v>45549.76791336805</v>
+      </c>
+      <c r="B345" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="C345" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D345" s="14">
+        <v>2.0242901E7</v>
+      </c>
+      <c r="E345" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="F345" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G345" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H345" s="14">
+        <v>2022.0</v>
+      </c>
+      <c r="I345" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J345" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K345" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L345" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M345" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="11">
+        <v>45549.76982054398</v>
+      </c>
+      <c r="B346" s="12" t="s">
+        <v>797</v>
+      </c>
+      <c r="C346" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D346" s="12">
+        <v>2.0242508E7</v>
+      </c>
+      <c r="E346" s="12" t="s">
+        <v>798</v>
+      </c>
+      <c r="F346" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G346" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H346" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I346" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J346" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K346" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L346" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M346" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="13">
+        <v>45549.78910708333</v>
+      </c>
+      <c r="B347" s="14" t="s">
+        <v>799</v>
+      </c>
+      <c r="C347" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D347" s="14">
+        <v>2.0213533E7</v>
+      </c>
+      <c r="E347" s="14" t="s">
+        <v>800</v>
+      </c>
+      <c r="F347" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G347" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H347" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I347" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J347" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K347" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L347" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N347" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="11">
+        <v>45549.79368153935</v>
+      </c>
+      <c r="B348" s="12" t="s">
+        <v>801</v>
+      </c>
+      <c r="C348" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="D348" s="12">
+        <v>2.0214113E7</v>
+      </c>
+      <c r="E348" s="12" t="s">
+        <v>802</v>
+      </c>
+      <c r="F348" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G348" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H348" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I348" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J348" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K348" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L348" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M348" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="13">
+        <v>45549.79484890046</v>
+      </c>
+      <c r="B349" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="C349" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D349" s="14">
+        <v>2.0212566E7</v>
+      </c>
+      <c r="E349" s="14" t="s">
+        <v>804</v>
+      </c>
+      <c r="F349" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G349" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H349" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I349" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J349" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K349" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L349" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N349" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="11">
+        <v>45549.805757256945</v>
+      </c>
+      <c r="B350" s="12" t="s">
+        <v>805</v>
+      </c>
+      <c r="C350" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D350" s="12">
+        <v>2.0246218E7</v>
+      </c>
+      <c r="E350" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F350" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G350" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H350" s="12">
+        <v>2012.0</v>
+      </c>
+      <c r="I350" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J350" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K350" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L350" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M350" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="13">
+        <v>45549.80914693287</v>
+      </c>
+      <c r="B351" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="C351" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D351" s="14">
+        <v>2.0246628E7</v>
+      </c>
+      <c r="E351" s="14" t="s">
+        <v>807</v>
+      </c>
+      <c r="F351" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G351" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H351" s="14">
+        <v>2012.0</v>
+      </c>
+      <c r="I351" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J351" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K351" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L351" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N351" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="11">
+        <v>45549.81140050926</v>
+      </c>
+      <c r="B352" s="12" t="s">
+        <v>808</v>
+      </c>
+      <c r="C352" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="D352" s="12">
+        <v>2.0215158E7</v>
+      </c>
+      <c r="E352" s="12" t="s">
+        <v>809</v>
+      </c>
+      <c r="F352" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G352" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H352" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I352" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J352" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K352" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L352" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N352" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="13">
+        <v>45549.81653092593</v>
+      </c>
+      <c r="B353" s="14" t="s">
+        <v>810</v>
+      </c>
+      <c r="C353" s="14" t="s">
+        <v>480</v>
+      </c>
+      <c r="D353" s="14">
+        <v>2.0202761E7</v>
+      </c>
+      <c r="E353" s="14" t="s">
+        <v>811</v>
+      </c>
+      <c r="F353" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G353" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H353" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I353" s="14">
+        <v>2019.0</v>
+      </c>
+      <c r="J353" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K353" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L353" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N353" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="11">
+        <v>45549.816636504635</v>
+      </c>
+      <c r="B354" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="C354" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D354" s="12">
+        <v>2.0236739E7</v>
+      </c>
+      <c r="E354" s="12" t="s">
+        <v>813</v>
+      </c>
+      <c r="F354" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G354" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H354" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I354" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J354" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K354" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L354" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M354" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="13">
+        <v>45549.820301354164</v>
+      </c>
+      <c r="B355" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="C355" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D355" s="14">
+        <v>2.0243223E7</v>
+      </c>
+      <c r="E355" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="F355" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G355" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H355" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I355" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J355" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K355" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L355" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N355" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="11">
+        <v>45549.823247465276</v>
+      </c>
+      <c r="B356" s="12" t="s">
+        <v>816</v>
+      </c>
+      <c r="C356" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D356" s="12">
+        <v>2.0243803E7</v>
+      </c>
+      <c r="E356" s="12" t="s">
+        <v>817</v>
+      </c>
+      <c r="F356" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G356" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H356" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I356" s="12">
+        <v>2021.0</v>
+      </c>
+      <c r="J356" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K356" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L356" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N356" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="13">
+        <v>45549.8397724074</v>
+      </c>
+      <c r="B357" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="C357" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D357" s="14">
+        <v>2.0245169E7</v>
+      </c>
+      <c r="E357" s="14" t="s">
+        <v>819</v>
+      </c>
+      <c r="F357" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G357" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H357" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I357" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J357" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K357" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L357" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N357" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="11">
+        <v>45549.843899432875</v>
+      </c>
+      <c r="B358" s="12" t="s">
+        <v>820</v>
+      </c>
+      <c r="C358" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D358" s="12">
+        <v>2.0213609E7</v>
+      </c>
+      <c r="E358" s="12" t="s">
+        <v>821</v>
+      </c>
+      <c r="F358" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G358" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H358" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I358" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J358" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K358" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L358" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N358" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="13">
+        <v>45549.86894689815</v>
+      </c>
+      <c r="B359" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="C359" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D359" s="14">
+        <v>2.0201002E7</v>
+      </c>
+      <c r="E359" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="F359" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G359" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H359" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I359" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J359" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K359" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L359" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M359" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="11">
+        <v>45549.87283114583</v>
+      </c>
+      <c r="B360" s="12" t="s">
+        <v>824</v>
+      </c>
+      <c r="C360" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D360" s="12">
+        <v>2.0227078E7</v>
+      </c>
+      <c r="E360" s="12" t="s">
+        <v>825</v>
+      </c>
+      <c r="F360" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G360" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H360" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I360" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J360" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K360" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L360" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M360" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="13">
+        <v>45549.87454089121</v>
+      </c>
+      <c r="B361" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="C361" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D361" s="14">
+        <v>2.0242101E7</v>
+      </c>
+      <c r="E361" s="14" t="s">
+        <v>827</v>
+      </c>
+      <c r="F361" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G361" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H361" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I361" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J361" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K361" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L361" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N361" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="11">
+        <v>45549.88976209491</v>
+      </c>
+      <c r="B362" s="12" t="s">
+        <v>828</v>
+      </c>
+      <c r="C362" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D362" s="12">
+        <v>2.0192876E7</v>
+      </c>
+      <c r="E362" s="12" t="s">
+        <v>829</v>
+      </c>
+      <c r="F362" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G362" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H362" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I362" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J362" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K362" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L362" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N362" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="13">
+        <v>45549.894763715274</v>
+      </c>
+      <c r="B363" s="14" t="s">
+        <v>830</v>
+      </c>
+      <c r="C363" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D363" s="14">
+        <v>2.0246932E7</v>
+      </c>
+      <c r="E363" s="14" t="s">
+        <v>831</v>
+      </c>
+      <c r="F363" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G363" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H363" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I363" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J363" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K363" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L363" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N363" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="11">
+        <v>45549.917294432875</v>
+      </c>
+      <c r="B364" s="12" t="s">
+        <v>832</v>
+      </c>
+      <c r="C364" s="12" t="s">
+        <v>833</v>
+      </c>
+      <c r="D364" s="12">
+        <v>2.0205139E7</v>
+      </c>
+      <c r="E364" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="F364" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G364" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H364" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I364" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J364" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K364" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L364" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N364" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="13">
+        <v>45549.92337074074</v>
+      </c>
+      <c r="B365" s="14" t="s">
+        <v>835</v>
+      </c>
+      <c r="C365" s="14" t="s">
+        <v>836</v>
+      </c>
+      <c r="D365" s="14">
+        <v>2.0215239E7</v>
+      </c>
+      <c r="E365" s="14" t="s">
+        <v>837</v>
+      </c>
+      <c r="F365" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G365" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H365" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I365" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J365" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K365" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L365" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N365" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="11">
+        <v>45549.92755951389</v>
+      </c>
+      <c r="B366" s="12" t="s">
+        <v>838</v>
+      </c>
+      <c r="C366" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D366" s="12">
+        <v>2.0241515E7</v>
+      </c>
+      <c r="E366" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="F366" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G366" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H366" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I366" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J366" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K366" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L366" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N366" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="13">
+        <v>45549.94867864583</v>
+      </c>
+      <c r="B367" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="C367" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D367" s="14">
+        <v>2.0203055E7</v>
+      </c>
+      <c r="E367" s="14" t="s">
+        <v>840</v>
+      </c>
+      <c r="F367" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G367" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H367" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I367" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J367" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K367" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L367" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M367" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="11">
+        <v>45549.95370349537</v>
+      </c>
+      <c r="B368" s="12" t="s">
+        <v>841</v>
+      </c>
+      <c r="C368" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D368" s="12">
+        <v>2.0246782E7</v>
+      </c>
+      <c r="E368" s="12" t="s">
+        <v>842</v>
+      </c>
+      <c r="F368" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G368" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H368" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I368" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J368" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K368" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L368" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M368" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="13">
+        <v>45549.95708678241</v>
+      </c>
+      <c r="B369" s="14" t="s">
+        <v>843</v>
+      </c>
+      <c r="C369" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D369" s="14">
+        <v>2.0217015E7</v>
+      </c>
+      <c r="E369" s="14" t="s">
+        <v>844</v>
+      </c>
+      <c r="F369" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G369" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H369" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I369" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J369" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K369" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L369" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M369" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="11">
+        <v>45549.96878623843</v>
+      </c>
+      <c r="B370" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="C370" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D370" s="12">
+        <v>2.0242306E7</v>
+      </c>
+      <c r="E370" s="12" t="s">
+        <v>846</v>
+      </c>
+      <c r="F370" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G370" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H370" s="12">
+        <v>2022.0</v>
+      </c>
+      <c r="I370" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J370" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K370" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L370" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N370" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="13">
+        <v>45549.996381585646</v>
+      </c>
+      <c r="B371" s="14" t="s">
+        <v>847</v>
+      </c>
+      <c r="C371" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D371" s="14">
+        <v>2.0206628E7</v>
+      </c>
+      <c r="E371" s="14" t="s">
+        <v>848</v>
+      </c>
+      <c r="F371" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G371" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H371" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I371" s="14">
+        <v>2021.0</v>
+      </c>
+      <c r="J371" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K371" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L371" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N371" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="11">
+        <v>45549.99721417824</v>
+      </c>
+      <c r="B372" s="12" t="s">
+        <v>849</v>
+      </c>
+      <c r="C372" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D372" s="12">
+        <v>2.0193836E7</v>
+      </c>
+      <c r="E372" s="12" t="s">
+        <v>850</v>
+      </c>
+      <c r="F372" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G372" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H372" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I372" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J372" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K372" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L372" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N372" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="13">
+        <v>45550.00216942129</v>
+      </c>
+      <c r="B373" s="14" t="s">
+        <v>851</v>
+      </c>
+      <c r="C373" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D373" s="14">
+        <v>2.0233055E7</v>
+      </c>
+      <c r="E373" s="14" t="s">
+        <v>852</v>
+      </c>
+      <c r="F373" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G373" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H373" s="14">
+        <v>2022.0</v>
+      </c>
+      <c r="I373" s="14">
+        <v>2021.0</v>
+      </c>
+      <c r="J373" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K373" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L373" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M373" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="11">
+        <v>45550.018910694445</v>
+      </c>
+      <c r="B374" s="12" t="s">
+        <v>853</v>
+      </c>
+      <c r="C374" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D374" s="12">
+        <v>2.0246648E7</v>
+      </c>
+      <c r="E374" s="12" t="s">
+        <v>854</v>
+      </c>
+      <c r="F374" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G374" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H374" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I374" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J374" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K374" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L374" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N374" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="13">
+        <v>45550.03152260417</v>
+      </c>
+      <c r="B375" s="14" t="s">
+        <v>855</v>
+      </c>
+      <c r="C375" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D375" s="14">
+        <v>2.0192721E7</v>
+      </c>
+      <c r="E375" s="14" t="s">
+        <v>856</v>
+      </c>
+      <c r="F375" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G375" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H375" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I375" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J375" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K375" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L375" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M375" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="11">
+        <v>45550.03513982639</v>
+      </c>
+      <c r="B376" s="12" t="s">
+        <v>857</v>
+      </c>
+      <c r="C376" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="D376" s="12">
+        <v>2.0225218E7</v>
+      </c>
+      <c r="E376" s="12" t="s">
+        <v>859</v>
+      </c>
+      <c r="F376" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G376" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="H376" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I376" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J376" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K376" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L376" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N376" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="13">
+        <v>45550.040000891204</v>
+      </c>
+      <c r="B377" s="14" t="s">
+        <v>860</v>
+      </c>
+      <c r="C377" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D377" s="14">
+        <v>2.0243825E7</v>
+      </c>
+      <c r="E377" s="14" t="s">
+        <v>861</v>
+      </c>
+      <c r="F377" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G377" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H377" s="14">
+        <v>2022.0</v>
+      </c>
+      <c r="I377" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J377" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K377" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L377" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M377" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="11">
+        <v>45550.04567818287</v>
+      </c>
+      <c r="B378" s="12" t="s">
+        <v>862</v>
+      </c>
+      <c r="C378" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D378" s="12">
+        <v>2.0246942E7</v>
+      </c>
+      <c r="E378" s="12" t="s">
+        <v>863</v>
+      </c>
+      <c r="F378" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G378" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H378" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I378" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J378" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K378" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L378" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M378" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="13">
+        <v>45550.05812289352</v>
+      </c>
+      <c r="B379" s="14" t="s">
+        <v>864</v>
+      </c>
+      <c r="C379" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="D379" s="14">
+        <v>2.0205226E7</v>
+      </c>
+      <c r="E379" s="14" t="s">
+        <v>865</v>
+      </c>
+      <c r="F379" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G379" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H379" s="14">
+        <v>2022.0</v>
+      </c>
+      <c r="I379" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J379" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K379" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L379" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N379" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="11">
+        <v>45550.06326565972</v>
+      </c>
+      <c r="B380" s="12" t="s">
+        <v>866</v>
+      </c>
+      <c r="C380" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D380" s="12">
+        <v>2.0193633E7</v>
+      </c>
+      <c r="E380" s="12" t="s">
+        <v>776</v>
+      </c>
+      <c r="F380" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G380" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H380" s="12">
+        <v>2012.0</v>
+      </c>
+      <c r="I380" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J380" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K380" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L380" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N380" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="13">
+        <v>45550.067376770836</v>
+      </c>
+      <c r="B381" s="14" t="s">
+        <v>867</v>
+      </c>
+      <c r="C381" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D381" s="14">
+        <v>2.022301E7</v>
+      </c>
+      <c r="E381" s="14" t="s">
+        <v>868</v>
+      </c>
+      <c r="F381" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G381" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H381" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I381" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J381" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K381" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L381" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N381" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="11">
+        <v>45550.06766569444</v>
+      </c>
+      <c r="B382" s="12" t="s">
+        <v>869</v>
+      </c>
+      <c r="C382" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D382" s="12">
+        <v>2.0243064E7</v>
+      </c>
+      <c r="E382" s="12" t="s">
+        <v>870</v>
+      </c>
+      <c r="F382" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G382" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H382" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I382" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J382" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K382" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L382" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N382" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="13">
+        <v>45550.07465717592</v>
+      </c>
+      <c r="B383" s="14" t="s">
+        <v>871</v>
+      </c>
+      <c r="C383" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D383" s="14">
+        <v>2.0246715E7</v>
+      </c>
+      <c r="E383" s="14" t="s">
+        <v>872</v>
+      </c>
+      <c r="F383" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G383" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H383" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I383" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J383" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K383" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L383" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N383" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="11">
+        <v>45550.1050121875</v>
+      </c>
+      <c r="B384" s="12" t="s">
+        <v>873</v>
+      </c>
+      <c r="C384" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D384" s="12">
+        <v>2.0211059E7</v>
+      </c>
+      <c r="E384" s="12" t="s">
+        <v>874</v>
+      </c>
+      <c r="F384" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G384" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H384" s="12">
+        <v>2012.0</v>
+      </c>
+      <c r="I384" s="12">
+        <v>2019.0</v>
+      </c>
+      <c r="J384" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K384" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L384" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N384" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="13">
+        <v>45550.112115613425</v>
+      </c>
+      <c r="B385" s="14" t="s">
+        <v>875</v>
+      </c>
+      <c r="C385" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D385" s="14">
+        <v>2.0242128E7</v>
+      </c>
+      <c r="E385" s="14" t="s">
+        <v>876</v>
+      </c>
+      <c r="F385" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G385" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H385" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I385" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J385" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K385" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L385" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N385" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="11">
+        <v>45550.147272476854</v>
+      </c>
+      <c r="B386" s="12" t="s">
+        <v>877</v>
+      </c>
+      <c r="C386" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D386" s="12">
+        <v>2.0242118E7</v>
+      </c>
+      <c r="E386" s="12" t="s">
+        <v>878</v>
+      </c>
+      <c r="F386" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G386" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H386" s="12">
+        <v>2027.0</v>
+      </c>
+      <c r="I386" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J386" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K386" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L386" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N386" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="13">
+        <v>45550.15485652778</v>
+      </c>
+      <c r="B387" s="14" t="s">
+        <v>879</v>
+      </c>
+      <c r="C387" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D387" s="14">
+        <v>2.0241513E7</v>
+      </c>
+      <c r="E387" s="14" t="s">
+        <v>880</v>
+      </c>
+      <c r="F387" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G387" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H387" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I387" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J387" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K387" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L387" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M387" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="11">
+        <v>45550.1726596875</v>
+      </c>
+      <c r="B388" s="12" t="s">
+        <v>881</v>
+      </c>
+      <c r="C388" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D388" s="12">
+        <v>2.0242981E7</v>
+      </c>
+      <c r="E388" s="12" t="s">
+        <v>882</v>
+      </c>
+      <c r="F388" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G388" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H388" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I388" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J388" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K388" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L388" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M388" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="13">
+        <v>45550.21340458334</v>
+      </c>
+      <c r="B389" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="C389" s="14" t="s">
+        <v>884</v>
+      </c>
+      <c r="D389" s="14">
+        <v>2.0242925E7</v>
+      </c>
+      <c r="E389" s="14" t="s">
+        <v>885</v>
+      </c>
+      <c r="F389" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G389" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H389" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I389" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J389" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K389" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L389" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M389" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="11">
+        <v>45550.27325212963</v>
+      </c>
+      <c r="B390" s="12" t="s">
+        <v>886</v>
+      </c>
+      <c r="C390" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D390" s="12">
+        <v>2.0212609E7</v>
+      </c>
+      <c r="E390" s="12" t="s">
+        <v>887</v>
+      </c>
+      <c r="F390" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G390" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H390" s="12">
+        <v>2027.0</v>
+      </c>
+      <c r="I390" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J390" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K390" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L390" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M390" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="13">
+        <v>45550.34811366898</v>
+      </c>
+      <c r="B391" s="14" t="s">
+        <v>888</v>
+      </c>
+      <c r="C391" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D391" s="14">
+        <v>2.0243741E7</v>
+      </c>
+      <c r="E391" s="14" t="s">
+        <v>889</v>
+      </c>
+      <c r="F391" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G391" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H391" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I391" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J391" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K391" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L391" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M391" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="11">
+        <v>45550.3602559375</v>
+      </c>
+      <c r="B392" s="12" t="s">
+        <v>890</v>
+      </c>
+      <c r="C392" s="12" t="s">
+        <v>891</v>
+      </c>
+      <c r="D392" s="12">
+        <v>2.0231205E7</v>
+      </c>
+      <c r="E392" s="12" t="s">
+        <v>892</v>
+      </c>
+      <c r="F392" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G392" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H392" s="12">
+        <v>2022.0</v>
+      </c>
+      <c r="I392" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J392" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K392" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L392" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N392" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="13">
+        <v>45550.3606947338</v>
+      </c>
+      <c r="B393" s="14" t="s">
+        <v>893</v>
+      </c>
+      <c r="C393" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D393" s="14">
+        <v>2.0242205E7</v>
+      </c>
+      <c r="E393" s="14" t="s">
+        <v>894</v>
+      </c>
+      <c r="F393" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G393" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H393" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I393" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J393" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K393" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L393" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M393" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="11">
+        <v>45550.361425173614</v>
+      </c>
+      <c r="B394" s="12" t="s">
+        <v>895</v>
+      </c>
+      <c r="C394" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D394" s="12">
+        <v>2.0243806E7</v>
+      </c>
+      <c r="E394" s="12" t="s">
+        <v>896</v>
+      </c>
+      <c r="F394" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G394" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H394" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I394" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J394" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K394" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L394" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M394" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="13">
+        <v>45550.366098796294</v>
+      </c>
+      <c r="B395" s="14" t="s">
+        <v>897</v>
+      </c>
+      <c r="C395" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="D395" s="14">
+        <v>2.0231033E7</v>
+      </c>
+      <c r="E395" s="14" t="s">
+        <v>624</v>
+      </c>
+      <c r="F395" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G395" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H395" s="14">
+        <v>2022.0</v>
+      </c>
+      <c r="I395" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J395" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K395" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L395" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M395" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="11">
+        <v>45550.36939078703</v>
+      </c>
+      <c r="B396" s="12" t="s">
+        <v>899</v>
+      </c>
+      <c r="C396" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D396" s="12">
+        <v>2.0242411E7</v>
+      </c>
+      <c r="E396" s="12" t="s">
+        <v>900</v>
+      </c>
+      <c r="F396" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G396" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H396" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I396" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J396" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K396" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L396" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N396" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="13">
+        <v>45550.38933628472</v>
+      </c>
+      <c r="B397" s="14" t="s">
+        <v>901</v>
+      </c>
+      <c r="C397" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D397" s="14">
+        <v>2.0231623E7</v>
+      </c>
+      <c r="E397" s="14" t="s">
+        <v>902</v>
+      </c>
+      <c r="F397" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G397" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H397" s="14">
+        <v>2022.0</v>
+      </c>
+      <c r="I397" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J397" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K397" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L397" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N397" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="11">
+        <v>45550.399659930554</v>
+      </c>
+      <c r="B398" s="12" t="s">
+        <v>903</v>
+      </c>
+      <c r="C398" s="12" t="s">
+        <v>904</v>
+      </c>
+      <c r="D398" s="12">
+        <v>2.0203322E7</v>
+      </c>
+      <c r="E398" s="12" t="s">
+        <v>905</v>
+      </c>
+      <c r="F398" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G398" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H398" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I398" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J398" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K398" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L398" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M398" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="13">
+        <v>45550.40308400463</v>
+      </c>
+      <c r="B399" s="14" t="s">
+        <v>906</v>
+      </c>
+      <c r="C399" s="14" t="s">
+        <v>289</v>
+      </c>
+      <c r="D399" s="14">
+        <v>2.0201721E7</v>
+      </c>
+      <c r="E399" s="14" t="s">
+        <v>907</v>
+      </c>
+      <c r="F399" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G399" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H399" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I399" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J399" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K399" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L399" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N399" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="11">
+        <v>45550.42469534722</v>
+      </c>
+      <c r="B400" s="12" t="s">
+        <v>908</v>
+      </c>
+      <c r="C400" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D400" s="12">
+        <v>2.0245271E7</v>
+      </c>
+      <c r="E400" s="12" t="s">
+        <v>909</v>
+      </c>
+      <c r="F400" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G400" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H400" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I400" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J400" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K400" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L400" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N400" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="17">
+        <v>45550.44401230324</v>
+      </c>
+      <c r="B401" s="18" t="s">
+        <v>910</v>
+      </c>
+      <c r="C401" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D401" s="18">
+        <v>2.0192717E7</v>
+      </c>
+      <c r="E401" s="18" t="s">
+        <v>911</v>
+      </c>
+      <c r="F401" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G401" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H401" s="18">
+        <v>2017.0</v>
+      </c>
+      <c r="I401" s="18">
+        <v>2021.0</v>
+      </c>
+      <c r="J401" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K401" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L401" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N401" s="19" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz240909_tmp.xlsx
+++ b/R/data/quiz240909_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3614" uniqueCount="912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4919" uniqueCount="1202">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -2747,6 +2747,876 @@
   </si>
   <si>
     <t>류현진</t>
+  </si>
+  <si>
+    <t>dct0807@naver.com</t>
+  </si>
+  <si>
+    <t>이정민</t>
+  </si>
+  <si>
+    <t>gmldbs0812@gmail.com</t>
+  </si>
+  <si>
+    <t>강희윤</t>
+  </si>
+  <si>
+    <t>dayae6762@naver.com</t>
+  </si>
+  <si>
+    <t>장다예</t>
+  </si>
+  <si>
+    <t>dmtn0001@naver.com</t>
+  </si>
+  <si>
+    <t>김의수</t>
+  </si>
+  <si>
+    <t>to_csm@naver.com</t>
+  </si>
+  <si>
+    <t>천상미</t>
+  </si>
+  <si>
+    <t>ujs4198@naver.com</t>
+  </si>
+  <si>
+    <t>엄준식</t>
+  </si>
+  <si>
+    <t>joon020978@gmail.com</t>
+  </si>
+  <si>
+    <t>이준</t>
+  </si>
+  <si>
+    <t>seoeunwkd@gmail.com</t>
+  </si>
+  <si>
+    <t>정서은</t>
+  </si>
+  <si>
+    <t>csm06125@naver.com</t>
+  </si>
+  <si>
+    <t>박근태</t>
+  </si>
+  <si>
+    <t>kcwel1109@gmail.com</t>
+  </si>
+  <si>
+    <t>고미연</t>
+  </si>
+  <si>
+    <t>grace0388@naver.com</t>
+  </si>
+  <si>
+    <t>김하은</t>
+  </si>
+  <si>
+    <t>leenara633@gmail.com</t>
+  </si>
+  <si>
+    <t>이나라</t>
+  </si>
+  <si>
+    <t>crown7308@naver.com</t>
+  </si>
+  <si>
+    <t>콘텐츠it</t>
+  </si>
+  <si>
+    <t>박재환</t>
+  </si>
+  <si>
+    <t>parkjinseo23@naver.com</t>
+  </si>
+  <si>
+    <t>chltjdnjs2421@naver.com</t>
+  </si>
+  <si>
+    <t>최서원</t>
+  </si>
+  <si>
+    <t>slionrain0819@naver.com</t>
+  </si>
+  <si>
+    <t>정의환</t>
+  </si>
+  <si>
+    <t>kth4159@gmail.com</t>
+  </si>
+  <si>
+    <t>ywj0423@gmail.com</t>
+  </si>
+  <si>
+    <t>장예원</t>
+  </si>
+  <si>
+    <t>tonykim0703@gmail.com</t>
+  </si>
+  <si>
+    <t>김주엽</t>
+  </si>
+  <si>
+    <t>jinsugyeom49@gmail.com</t>
+  </si>
+  <si>
+    <t>진수겸</t>
+  </si>
+  <si>
+    <t>chhs337@naver.com</t>
+  </si>
+  <si>
+    <t>최홍서</t>
+  </si>
+  <si>
+    <t>psw9879@naver.com</t>
+  </si>
+  <si>
+    <t>박상원</t>
+  </si>
+  <si>
+    <t>shasha4321@naver.com</t>
+  </si>
+  <si>
+    <t>정다영</t>
+  </si>
+  <si>
+    <t>smarthulk0318@naver.com</t>
+  </si>
+  <si>
+    <t>조성민</t>
+  </si>
+  <si>
+    <t>eseses0827@naver.com</t>
+  </si>
+  <si>
+    <t>강은서</t>
+  </si>
+  <si>
+    <t>siqyy2003@gmail.com</t>
+  </si>
+  <si>
+    <t>양민서</t>
+  </si>
+  <si>
+    <t>kimeunji0512@naver.com</t>
+  </si>
+  <si>
+    <t>김은지</t>
+  </si>
+  <si>
+    <t>dearmy0819@gmail.com</t>
+  </si>
+  <si>
+    <t>박혜원</t>
+  </si>
+  <si>
+    <t>oj5803@naver.com</t>
+  </si>
+  <si>
+    <t>이영주</t>
+  </si>
+  <si>
+    <t>youngold057@gmail.com</t>
+  </si>
+  <si>
+    <t>윤태영</t>
+  </si>
+  <si>
+    <t>tidlswjddms@naver.com</t>
+  </si>
+  <si>
+    <t>임정은</t>
+  </si>
+  <si>
+    <t>ojg1476@naver.com</t>
+  </si>
+  <si>
+    <t>오정건</t>
+  </si>
+  <si>
+    <t>p060627@naver.com</t>
+  </si>
+  <si>
+    <t>박찬혁</t>
+  </si>
+  <si>
+    <t>okroyal1@naver.com</t>
+  </si>
+  <si>
+    <t>오성민</t>
+  </si>
+  <si>
+    <t>ziva0726@naver.com</t>
+  </si>
+  <si>
+    <t>김소현</t>
+  </si>
+  <si>
+    <t>lyn392392@naver.com</t>
+  </si>
+  <si>
+    <t>이유나</t>
+  </si>
+  <si>
+    <t>wlsqhwlsqh21@naver.com</t>
+  </si>
+  <si>
+    <t>심진보</t>
+  </si>
+  <si>
+    <t>qudcksl1216@naver.com</t>
+  </si>
+  <si>
+    <t>윤병찬</t>
+  </si>
+  <si>
+    <t>chiyoon12@gmail.com</t>
+  </si>
+  <si>
+    <t>김치윤</t>
+  </si>
+  <si>
+    <t>tjtkdwns0806@naver.com</t>
+  </si>
+  <si>
+    <t>서상준</t>
+  </si>
+  <si>
+    <t>aj7082331@gmail.com</t>
+  </si>
+  <si>
+    <t>조아나</t>
+  </si>
+  <si>
+    <t>seoeunchan5@gmail.com</t>
+  </si>
+  <si>
+    <t>서은찬</t>
+  </si>
+  <si>
+    <t>hshhsh0774@gmail.com</t>
+  </si>
+  <si>
+    <t>한승호</t>
+  </si>
+  <si>
+    <t>ann12ann1209@gmail.com</t>
+  </si>
+  <si>
+    <t>김혜원</t>
+  </si>
+  <si>
+    <t>dbfrhr02@naver.com</t>
+  </si>
+  <si>
+    <t>심건휘</t>
+  </si>
+  <si>
+    <t>r67890@naver.com</t>
+  </si>
+  <si>
+    <t>이규형</t>
+  </si>
+  <si>
+    <t>andy041001@naver.com</t>
+  </si>
+  <si>
+    <t>이형범</t>
+  </si>
+  <si>
+    <t>rlatldbs124@naevr.com</t>
+  </si>
+  <si>
+    <t>김시윤</t>
+  </si>
+  <si>
+    <t>johyeram@gmail.com</t>
+  </si>
+  <si>
+    <t>조혜람</t>
+  </si>
+  <si>
+    <t>kmc20051114@gmail.com</t>
+  </si>
+  <si>
+    <t>김민찬</t>
+  </si>
+  <si>
+    <t>wtbaa33@naver.com</t>
+  </si>
+  <si>
+    <t>김민교</t>
+  </si>
+  <si>
+    <t>sws62550100@gmail.com</t>
+  </si>
+  <si>
+    <t>서우성</t>
+  </si>
+  <si>
+    <t>jjongwoo0628@naver.com</t>
+  </si>
+  <si>
+    <t>윤종우</t>
+  </si>
+  <si>
+    <t>juhui050356@naver.com</t>
+  </si>
+  <si>
+    <t>김주희</t>
+  </si>
+  <si>
+    <t>lg01022928122@gmail.com</t>
+  </si>
+  <si>
+    <t>권주용</t>
+  </si>
+  <si>
+    <t>syb00syb00@naver.com</t>
+  </si>
+  <si>
+    <t>신유비</t>
+  </si>
+  <si>
+    <t>towp7563@gmail.com</t>
+  </si>
+  <si>
+    <t>오승현</t>
+  </si>
+  <si>
+    <t>bjd321young@gmail.com</t>
+  </si>
+  <si>
+    <t>심영찬</t>
+  </si>
+  <si>
+    <t>hyunwoo422303@gmail.com</t>
+  </si>
+  <si>
+    <t>김현우</t>
+  </si>
+  <si>
+    <t>play030205@naver.com</t>
+  </si>
+  <si>
+    <t>조민</t>
+  </si>
+  <si>
+    <t>qaz5316qaz@naver.com</t>
+  </si>
+  <si>
+    <t>이동기</t>
+  </si>
+  <si>
+    <t>geonu4496@gmail.com</t>
+  </si>
+  <si>
+    <t>이건우</t>
+  </si>
+  <si>
+    <t>dohan5453@gmail.com</t>
+  </si>
+  <si>
+    <t>김도한</t>
+  </si>
+  <si>
+    <t>rladud30601@naver.com</t>
+  </si>
+  <si>
+    <t>김 영</t>
+  </si>
+  <si>
+    <t>leeyubin050328@naver.com</t>
+  </si>
+  <si>
+    <t>8482kyn@naver.com</t>
+  </si>
+  <si>
+    <t>김에나</t>
+  </si>
+  <si>
+    <t>rlaehdnr999@naver.com</t>
+  </si>
+  <si>
+    <t>김도욱</t>
+  </si>
+  <si>
+    <t>minwl19@naver.com</t>
+  </si>
+  <si>
+    <t>조민지</t>
+  </si>
+  <si>
+    <t>dw060419@naver.com</t>
+  </si>
+  <si>
+    <t>김도원</t>
+  </si>
+  <si>
+    <t>tommy580134@naver.com</t>
+  </si>
+  <si>
+    <t>예준원</t>
+  </si>
+  <si>
+    <t>mkjk00@naver.com</t>
+  </si>
+  <si>
+    <t>정민기</t>
+  </si>
+  <si>
+    <t>kkkssshhh2005@naver.com</t>
+  </si>
+  <si>
+    <t>김서희</t>
+  </si>
+  <si>
+    <t>rachal7449@naver.com</t>
+  </si>
+  <si>
+    <t>최자영</t>
+  </si>
+  <si>
+    <t>pcw5766@naver.com</t>
+  </si>
+  <si>
+    <t>박찬웅</t>
+  </si>
+  <si>
+    <t>skyflight0656@gmail.com</t>
+  </si>
+  <si>
+    <t>한충서</t>
+  </si>
+  <si>
+    <t>dudwndi09@naver.com</t>
+  </si>
+  <si>
+    <t>권영주</t>
+  </si>
+  <si>
+    <t>solepkinsg@gmail.com</t>
+  </si>
+  <si>
+    <t>박인성</t>
+  </si>
+  <si>
+    <t>leeleeya1013@gmail.com</t>
+  </si>
+  <si>
+    <t>김민서</t>
+  </si>
+  <si>
+    <t>jkmy2516@naver.com</t>
+  </si>
+  <si>
+    <t>장석빈</t>
+  </si>
+  <si>
+    <t>cold050317@gmail.com</t>
+  </si>
+  <si>
+    <t>김찬종</t>
+  </si>
+  <si>
+    <t>gkdms_0703@naver.com</t>
+  </si>
+  <si>
+    <t>이하은</t>
+  </si>
+  <si>
+    <t>shinsohee0713@naver.com</t>
+  </si>
+  <si>
+    <t>디지털미디어컨텐츠학과</t>
+  </si>
+  <si>
+    <t>신소희</t>
+  </si>
+  <si>
+    <t>chsmdfur123@naver.com</t>
+  </si>
+  <si>
+    <t>이한얼</t>
+  </si>
+  <si>
+    <t>jeongeun20050618@gmail.com</t>
+  </si>
+  <si>
+    <t>권정은</t>
+  </si>
+  <si>
+    <t>namryumin@gmail.com</t>
+  </si>
+  <si>
+    <t>남류민</t>
+  </si>
+  <si>
+    <t>cbh3trust4@naver.com</t>
+  </si>
+  <si>
+    <t>조정현</t>
+  </si>
+  <si>
+    <t>ye1651@naver.com</t>
+  </si>
+  <si>
+    <t>전예은</t>
+  </si>
+  <si>
+    <t>ysh050116@naver.com</t>
+  </si>
+  <si>
+    <t>윤시한</t>
+  </si>
+  <si>
+    <t>cjfghksznszns1100119@naver.com</t>
+  </si>
+  <si>
+    <t>유철환</t>
+  </si>
+  <si>
+    <t>bevery2685@gmail.com</t>
+  </si>
+  <si>
+    <t>조영태</t>
+  </si>
+  <si>
+    <t>dlakrp731@gmail.com</t>
+  </si>
+  <si>
+    <t>이준수</t>
+  </si>
+  <si>
+    <t>wnsgud9624@naver.com</t>
+  </si>
+  <si>
+    <t>임준형</t>
+  </si>
+  <si>
+    <t>ssjm9652@naver.com</t>
+  </si>
+  <si>
+    <t>소정민</t>
+  </si>
+  <si>
+    <t>ljy46tkd@naver.com</t>
+  </si>
+  <si>
+    <t>이정연</t>
+  </si>
+  <si>
+    <t>kimdongx0813@gmail.com</t>
+  </si>
+  <si>
+    <t>thddnjs1030@gmail.com</t>
+  </si>
+  <si>
+    <t>박송원</t>
+  </si>
+  <si>
+    <t>aks186@naver.com</t>
+  </si>
+  <si>
+    <t>안준선</t>
+  </si>
+  <si>
+    <t>ism050204@naver.com</t>
+  </si>
+  <si>
+    <t>obbobb7@gmail.com</t>
+  </si>
+  <si>
+    <t>구재영</t>
+  </si>
+  <si>
+    <t>jsh050906@naver.com</t>
+  </si>
+  <si>
+    <t>금융재무학과(경영대학)</t>
+  </si>
+  <si>
+    <t>정송희</t>
+  </si>
+  <si>
+    <t>dltmdwo0301@naver.com</t>
+  </si>
+  <si>
+    <t>이승재</t>
+  </si>
+  <si>
+    <t>for1369@gmail.com</t>
+  </si>
+  <si>
+    <t>성동진</t>
+  </si>
+  <si>
+    <t>park_minkyu@naver.com</t>
+  </si>
+  <si>
+    <t>박민규</t>
+  </si>
+  <si>
+    <t>hiho2679@naver.com</t>
+  </si>
+  <si>
+    <t>박서현</t>
+  </si>
+  <si>
+    <t>pugagi77@gmail.com</t>
+  </si>
+  <si>
+    <t>홍성화</t>
+  </si>
+  <si>
+    <t>hyu05145@naver.com</t>
+  </si>
+  <si>
+    <t>정서진</t>
+  </si>
+  <si>
+    <t>byl0730@naver.com</t>
+  </si>
+  <si>
+    <t>변예림</t>
+  </si>
+  <si>
+    <t>jyoon2233@naver.com</t>
+  </si>
+  <si>
+    <t>신정윤</t>
+  </si>
+  <si>
+    <t>sdw20050421@gmail.com</t>
+  </si>
+  <si>
+    <t>송도원</t>
+  </si>
+  <si>
+    <t>whalsrl124@naver.com</t>
+  </si>
+  <si>
+    <t>조민기</t>
+  </si>
+  <si>
+    <t>giyongi37@gmail.com</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>leekiyong</t>
+  </si>
+  <si>
+    <t>rhoy3156@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>노원철</t>
+  </si>
+  <si>
+    <t>ydy7495@naver.com</t>
+  </si>
+  <si>
+    <t>윤다연</t>
+  </si>
+  <si>
+    <t>nickjjang7@naver.com</t>
+  </si>
+  <si>
+    <t>옥석현</t>
+  </si>
+  <si>
+    <t>jklucky09@naver.com</t>
+  </si>
+  <si>
+    <t>최준근</t>
+  </si>
+  <si>
+    <t>leejhzzang2005@naver.com</t>
+  </si>
+  <si>
+    <t>이주현</t>
+  </si>
+  <si>
+    <t>jmmj99@naver.com</t>
+  </si>
+  <si>
+    <t>이지헌</t>
+  </si>
+  <si>
+    <t>bjw2934@naver.com</t>
+  </si>
+  <si>
+    <t>방정우</t>
+  </si>
+  <si>
+    <t>sky0219msh@gmail.com</t>
+  </si>
+  <si>
+    <t>최하늘</t>
+  </si>
+  <si>
+    <t>ncu11069@naver.com</t>
+  </si>
+  <si>
+    <t>이규민</t>
+  </si>
+  <si>
+    <t>dlalstmd03@gmail.com</t>
+  </si>
+  <si>
+    <t>이민승</t>
+  </si>
+  <si>
+    <t>ac3512@naver.com</t>
+  </si>
+  <si>
+    <t>융합신소재공학</t>
+  </si>
+  <si>
+    <t>김태근</t>
+  </si>
+  <si>
+    <t>qortjdus27@naver.com</t>
+  </si>
+  <si>
+    <t>백서연</t>
+  </si>
+  <si>
+    <t>kimtaehee34@naver.com</t>
+  </si>
+  <si>
+    <t>lsd5741@naver.com</t>
+  </si>
+  <si>
+    <t>이소담</t>
+  </si>
+  <si>
+    <t>lattace05@gmail.com</t>
+  </si>
+  <si>
+    <t>최동희</t>
+  </si>
+  <si>
+    <t>rudongdong0302@naver.com</t>
+  </si>
+  <si>
+    <t>이정효</t>
+  </si>
+  <si>
+    <t>sowon051125@naver.com</t>
+  </si>
+  <si>
+    <t>이소원</t>
+  </si>
+  <si>
+    <t>nye3799@naver.com</t>
+  </si>
+  <si>
+    <t>노예은</t>
+  </si>
+  <si>
+    <t>a68055637@gmail.com</t>
+  </si>
+  <si>
+    <t>이효민</t>
+  </si>
+  <si>
+    <t>dhpark25678@naver.com</t>
+  </si>
+  <si>
+    <t>박도현</t>
+  </si>
+  <si>
+    <t>juicee220@gmail.com</t>
+  </si>
+  <si>
+    <t>최주아</t>
+  </si>
+  <si>
+    <t>hsbg1118@gmail.com</t>
+  </si>
+  <si>
+    <t>전희성</t>
+  </si>
+  <si>
+    <t>dydwndus1115@naver.com</t>
+  </si>
+  <si>
+    <t>용주연</t>
+  </si>
+  <si>
+    <t>cmin0945@gmail.com</t>
+  </si>
+  <si>
+    <t>조상민</t>
+  </si>
+  <si>
+    <t>dkdud4750@naver.com</t>
+  </si>
+  <si>
+    <t>양아영</t>
+  </si>
+  <si>
+    <t>06kongkongsoon@gmail.com</t>
+  </si>
+  <si>
+    <t>이서연</t>
+  </si>
+  <si>
+    <t>bhyejin420@gmail.com</t>
+  </si>
+  <si>
+    <t>박혜진</t>
+  </si>
+  <si>
+    <t>ehgmldo2@naver.com</t>
+  </si>
+  <si>
+    <t>박도희</t>
+  </si>
+  <si>
+    <t>wjdalsrb303@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">정치행정학과 </t>
+  </si>
+  <si>
+    <t>정민규</t>
+  </si>
+  <si>
+    <t>xogns3043@naver.com</t>
+  </si>
+  <si>
+    <t>김태훈</t>
+  </si>
+  <si>
+    <t>woonsuck0916@naver.com</t>
+  </si>
+  <si>
+    <t>스마트IoT</t>
+  </si>
+  <si>
+    <t>운석현</t>
+  </si>
+  <si>
+    <t>haksun0217@naver.com</t>
+  </si>
+  <si>
+    <t>김학선</t>
+  </si>
+  <si>
+    <t>yu_min1220@naver.com</t>
+  </si>
+  <si>
+    <t>반도체 디스플레이 스쿨</t>
+  </si>
+  <si>
+    <t>황유민</t>
   </si>
 </sst>
 </file>
@@ -2777,7 +3647,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -2910,10 +3780,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2921,27 +3791,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -2951,7 +3807,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3007,9 +3863,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -3070,7 +3923,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N401" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N546" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -19716,44 +20569,5989 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="17">
+      <c r="A401" s="13">
         <v>45550.44401230324</v>
       </c>
-      <c r="B401" s="18" t="s">
+      <c r="B401" s="14" t="s">
         <v>910</v>
       </c>
-      <c r="C401" s="18" t="s">
+      <c r="C401" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="D401" s="18">
+      <c r="D401" s="14">
         <v>2.0192717E7</v>
       </c>
-      <c r="E401" s="18" t="s">
+      <c r="E401" s="14" t="s">
         <v>911</v>
       </c>
-      <c r="F401" s="18" t="s">
+      <c r="F401" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="G401" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H401" s="18">
-        <v>2017.0</v>
-      </c>
-      <c r="I401" s="18">
+      <c r="G401" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H401" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I401" s="14">
         <v>2021.0</v>
       </c>
-      <c r="J401" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K401" s="18" t="s">
+      <c r="J401" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K401" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="L401" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N401" s="19" t="s">
-        <v>22</v>
+      <c r="L401" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N401" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="11">
+        <v>45550.46004251158</v>
+      </c>
+      <c r="B402" s="12" t="s">
+        <v>912</v>
+      </c>
+      <c r="C402" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D402" s="12">
+        <v>2.0203019E7</v>
+      </c>
+      <c r="E402" s="12" t="s">
+        <v>913</v>
+      </c>
+      <c r="F402" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G402" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H402" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I402" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J402" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K402" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L402" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N402" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="13">
+        <v>45550.4769441088</v>
+      </c>
+      <c r="B403" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="C403" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D403" s="14">
+        <v>2.0223801E7</v>
+      </c>
+      <c r="E403" s="14" t="s">
+        <v>915</v>
+      </c>
+      <c r="F403" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G403" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H403" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I403" s="14">
+        <v>2019.0</v>
+      </c>
+      <c r="J403" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K403" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L403" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M403" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="11">
+        <v>45550.49145074074</v>
+      </c>
+      <c r="B404" s="12" t="s">
+        <v>916</v>
+      </c>
+      <c r="C404" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D404" s="12">
+        <v>2.0241081E7</v>
+      </c>
+      <c r="E404" s="12" t="s">
+        <v>917</v>
+      </c>
+      <c r="F404" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G404" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H404" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I404" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J404" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K404" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L404" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N404" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="13">
+        <v>45550.5000290625</v>
+      </c>
+      <c r="B405" s="14" t="s">
+        <v>918</v>
+      </c>
+      <c r="C405" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D405" s="14">
+        <v>2.0212927E7</v>
+      </c>
+      <c r="E405" s="14" t="s">
+        <v>919</v>
+      </c>
+      <c r="F405" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G405" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H405" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I405" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J405" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K405" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L405" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M405" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="11">
+        <v>45550.506942962966</v>
+      </c>
+      <c r="B406" s="12" t="s">
+        <v>920</v>
+      </c>
+      <c r="C406" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D406" s="12">
+        <v>2.0242844E7</v>
+      </c>
+      <c r="E406" s="12" t="s">
+        <v>921</v>
+      </c>
+      <c r="F406" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G406" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H406" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I406" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J406" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K406" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L406" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N406" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="13">
+        <v>45550.50872233797</v>
+      </c>
+      <c r="B407" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="C407" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D407" s="14">
+        <v>2.0197118E7</v>
+      </c>
+      <c r="E407" s="14" t="s">
+        <v>923</v>
+      </c>
+      <c r="F407" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G407" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H407" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I407" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J407" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K407" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L407" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N407" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="11">
+        <v>45550.512560034724</v>
+      </c>
+      <c r="B408" s="12" t="s">
+        <v>924</v>
+      </c>
+      <c r="C408" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D408" s="12">
+        <v>2.024223E7</v>
+      </c>
+      <c r="E408" s="12" t="s">
+        <v>925</v>
+      </c>
+      <c r="F408" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G408" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H408" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I408" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J408" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K408" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L408" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M408" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="13">
+        <v>45550.52692831018</v>
+      </c>
+      <c r="B409" s="14" t="s">
+        <v>926</v>
+      </c>
+      <c r="C409" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D409" s="14">
+        <v>2.0243426E7</v>
+      </c>
+      <c r="E409" s="14" t="s">
+        <v>927</v>
+      </c>
+      <c r="F409" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G409" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H409" s="14">
+        <v>2022.0</v>
+      </c>
+      <c r="I409" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J409" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K409" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L409" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M409" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="11">
+        <v>45550.530635324074</v>
+      </c>
+      <c r="B410" s="12" t="s">
+        <v>928</v>
+      </c>
+      <c r="C410" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D410" s="12">
+        <v>2.0203321E7</v>
+      </c>
+      <c r="E410" s="12" t="s">
+        <v>929</v>
+      </c>
+      <c r="F410" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G410" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H410" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I410" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J410" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K410" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L410" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N410" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="13">
+        <v>45550.53782366899</v>
+      </c>
+      <c r="B411" s="14" t="s">
+        <v>930</v>
+      </c>
+      <c r="C411" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D411" s="14">
+        <v>2.0246204E7</v>
+      </c>
+      <c r="E411" s="14" t="s">
+        <v>931</v>
+      </c>
+      <c r="F411" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G411" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H411" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I411" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J411" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K411" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L411" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M411" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="11">
+        <v>45550.54865872685</v>
+      </c>
+      <c r="B412" s="12" t="s">
+        <v>932</v>
+      </c>
+      <c r="C412" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D412" s="12">
+        <v>2.0222715E7</v>
+      </c>
+      <c r="E412" s="12" t="s">
+        <v>933</v>
+      </c>
+      <c r="F412" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G412" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H412" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I412" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J412" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K412" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L412" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N412" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="13">
+        <v>45550.55074895833</v>
+      </c>
+      <c r="B413" s="14" t="s">
+        <v>934</v>
+      </c>
+      <c r="C413" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D413" s="14">
+        <v>2.0241065E7</v>
+      </c>
+      <c r="E413" s="14" t="s">
+        <v>935</v>
+      </c>
+      <c r="F413" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G413" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H413" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I413" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J413" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K413" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L413" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N413" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="11">
+        <v>45550.55299589121</v>
+      </c>
+      <c r="B414" s="12" t="s">
+        <v>936</v>
+      </c>
+      <c r="C414" s="12" t="s">
+        <v>937</v>
+      </c>
+      <c r="D414" s="12">
+        <v>2.0205173E7</v>
+      </c>
+      <c r="E414" s="12" t="s">
+        <v>938</v>
+      </c>
+      <c r="F414" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G414" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H414" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I414" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J414" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K414" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L414" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N414" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="13">
+        <v>45550.55860900463</v>
+      </c>
+      <c r="B415" s="14" t="s">
+        <v>939</v>
+      </c>
+      <c r="C415" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D415" s="14">
+        <v>2.0242824E7</v>
+      </c>
+      <c r="E415" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="F415" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G415" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H415" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I415" s="14">
+        <v>2021.0</v>
+      </c>
+      <c r="J415" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K415" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L415" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M415" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="11">
+        <v>45550.567218958335</v>
+      </c>
+      <c r="B416" s="12" t="s">
+        <v>940</v>
+      </c>
+      <c r="C416" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D416" s="12">
+        <v>2.0242848E7</v>
+      </c>
+      <c r="E416" s="12" t="s">
+        <v>941</v>
+      </c>
+      <c r="F416" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G416" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H416" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I416" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J416" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K416" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L416" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N416" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="13">
+        <v>45550.570407499996</v>
+      </c>
+      <c r="B417" s="14" t="s">
+        <v>942</v>
+      </c>
+      <c r="C417" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D417" s="14">
+        <v>2.0243951E7</v>
+      </c>
+      <c r="E417" s="14" t="s">
+        <v>943</v>
+      </c>
+      <c r="F417" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G417" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H417" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I417" s="14">
+        <v>2019.0</v>
+      </c>
+      <c r="J417" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K417" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L417" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M417" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="11">
+        <v>45550.5716796412</v>
+      </c>
+      <c r="B418" s="12" t="s">
+        <v>944</v>
+      </c>
+      <c r="C418" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D418" s="12">
+        <v>2.024623E7</v>
+      </c>
+      <c r="E418" s="12" t="s">
+        <v>465</v>
+      </c>
+      <c r="F418" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G418" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="H418" s="12">
+        <v>2012.0</v>
+      </c>
+      <c r="I418" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J418" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K418" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L418" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N418" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="13">
+        <v>45550.58364473379</v>
+      </c>
+      <c r="B419" s="14" t="s">
+        <v>945</v>
+      </c>
+      <c r="C419" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D419" s="14">
+        <v>2.0241082E7</v>
+      </c>
+      <c r="E419" s="14" t="s">
+        <v>946</v>
+      </c>
+      <c r="F419" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G419" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H419" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I419" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J419" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K419" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L419" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M419" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="11">
+        <v>45550.58420013889</v>
+      </c>
+      <c r="B420" s="12" t="s">
+        <v>947</v>
+      </c>
+      <c r="C420" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D420" s="12">
+        <v>2.0213709E7</v>
+      </c>
+      <c r="E420" s="12" t="s">
+        <v>948</v>
+      </c>
+      <c r="F420" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G420" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H420" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I420" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J420" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K420" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L420" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M420" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="13">
+        <v>45550.59595888889</v>
+      </c>
+      <c r="B421" s="14" t="s">
+        <v>949</v>
+      </c>
+      <c r="C421" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D421" s="14">
+        <v>2.024304E7</v>
+      </c>
+      <c r="E421" s="14" t="s">
+        <v>950</v>
+      </c>
+      <c r="F421" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G421" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H421" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I421" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J421" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K421" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L421" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N421" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="11">
+        <v>45550.59753983797</v>
+      </c>
+      <c r="B422" s="12" t="s">
+        <v>951</v>
+      </c>
+      <c r="C422" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D422" s="12">
+        <v>2.0183006E7</v>
+      </c>
+      <c r="E422" s="12" t="s">
+        <v>952</v>
+      </c>
+      <c r="F422" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G422" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H422" s="12">
+        <v>2012.0</v>
+      </c>
+      <c r="I422" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J422" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K422" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L422" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M422" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="13">
+        <v>45550.63612040509</v>
+      </c>
+      <c r="B423" s="14" t="s">
+        <v>953</v>
+      </c>
+      <c r="C423" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="D423" s="14">
+        <v>2.0235164E7</v>
+      </c>
+      <c r="E423" s="14" t="s">
+        <v>954</v>
+      </c>
+      <c r="F423" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G423" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H423" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I423" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J423" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K423" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L423" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N423" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="11">
+        <v>45550.63924113426</v>
+      </c>
+      <c r="B424" s="12" t="s">
+        <v>955</v>
+      </c>
+      <c r="C424" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D424" s="12">
+        <v>2.0213035E7</v>
+      </c>
+      <c r="E424" s="12" t="s">
+        <v>956</v>
+      </c>
+      <c r="F424" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G424" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H424" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I424" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J424" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K424" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L424" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N424" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="13">
+        <v>45550.65076508102</v>
+      </c>
+      <c r="B425" s="14" t="s">
+        <v>957</v>
+      </c>
+      <c r="C425" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D425" s="14">
+        <v>2.0241095E7</v>
+      </c>
+      <c r="E425" s="14" t="s">
+        <v>958</v>
+      </c>
+      <c r="F425" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G425" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H425" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I425" s="14">
+        <v>2021.0</v>
+      </c>
+      <c r="J425" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K425" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L425" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N425" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="11">
+        <v>45550.656638761575</v>
+      </c>
+      <c r="B426" s="12" t="s">
+        <v>959</v>
+      </c>
+      <c r="C426" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D426" s="12">
+        <v>2.0241503E7</v>
+      </c>
+      <c r="E426" s="12" t="s">
+        <v>960</v>
+      </c>
+      <c r="F426" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G426" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H426" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I426" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J426" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K426" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L426" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M426" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="13">
+        <v>45550.656653541664</v>
+      </c>
+      <c r="B427" s="14" t="s">
+        <v>961</v>
+      </c>
+      <c r="C427" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D427" s="14">
+        <v>2.0224123E7</v>
+      </c>
+      <c r="E427" s="14" t="s">
+        <v>962</v>
+      </c>
+      <c r="F427" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G427" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H427" s="14">
+        <v>2027.0</v>
+      </c>
+      <c r="I427" s="14">
+        <v>2021.0</v>
+      </c>
+      <c r="J427" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K427" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L427" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N427" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="11">
+        <v>45550.667904166665</v>
+      </c>
+      <c r="B428" s="12" t="s">
+        <v>963</v>
+      </c>
+      <c r="C428" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D428" s="12">
+        <v>2.024391E7</v>
+      </c>
+      <c r="E428" s="12" t="s">
+        <v>964</v>
+      </c>
+      <c r="F428" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G428" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H428" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I428" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J428" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K428" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L428" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N428" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="13">
+        <v>45550.67484769676</v>
+      </c>
+      <c r="B429" s="14" t="s">
+        <v>965</v>
+      </c>
+      <c r="C429" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D429" s="14">
+        <v>2.0243225E7</v>
+      </c>
+      <c r="E429" s="14" t="s">
+        <v>966</v>
+      </c>
+      <c r="F429" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G429" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H429" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I429" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J429" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K429" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L429" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N429" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="11">
+        <v>45550.67723969907</v>
+      </c>
+      <c r="B430" s="12" t="s">
+        <v>967</v>
+      </c>
+      <c r="C430" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D430" s="12">
+        <v>2.0242628E7</v>
+      </c>
+      <c r="E430" s="12" t="s">
+        <v>968</v>
+      </c>
+      <c r="F430" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G430" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H430" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I430" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J430" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K430" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L430" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N430" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="13">
+        <v>45550.680767881946</v>
+      </c>
+      <c r="B431" s="14" t="s">
+        <v>969</v>
+      </c>
+      <c r="C431" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D431" s="14">
+        <v>2.0242336E7</v>
+      </c>
+      <c r="E431" s="14" t="s">
+        <v>970</v>
+      </c>
+      <c r="F431" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G431" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H431" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I431" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J431" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K431" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L431" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M431" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="11">
+        <v>45550.693282106484</v>
+      </c>
+      <c r="B432" s="12" t="s">
+        <v>971</v>
+      </c>
+      <c r="C432" s="12" t="s">
+        <v>708</v>
+      </c>
+      <c r="D432" s="12">
+        <v>2.020524E7</v>
+      </c>
+      <c r="E432" s="12" t="s">
+        <v>972</v>
+      </c>
+      <c r="F432" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G432" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H432" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I432" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J432" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K432" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L432" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N432" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="13">
+        <v>45550.701860497684</v>
+      </c>
+      <c r="B433" s="14" t="s">
+        <v>973</v>
+      </c>
+      <c r="C433" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="D433" s="14">
+        <v>2.0215187E7</v>
+      </c>
+      <c r="E433" s="14" t="s">
+        <v>974</v>
+      </c>
+      <c r="F433" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G433" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H433" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I433" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J433" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K433" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L433" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N433" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="11">
+        <v>45550.705411250005</v>
+      </c>
+      <c r="B434" s="12" t="s">
+        <v>975</v>
+      </c>
+      <c r="C434" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D434" s="12">
+        <v>2.0245175E7</v>
+      </c>
+      <c r="E434" s="12" t="s">
+        <v>976</v>
+      </c>
+      <c r="F434" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G434" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H434" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I434" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J434" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K434" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L434" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N434" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="13">
+        <v>45550.70862388889</v>
+      </c>
+      <c r="B435" s="14" t="s">
+        <v>977</v>
+      </c>
+      <c r="C435" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="D435" s="14">
+        <v>2.0241526E7</v>
+      </c>
+      <c r="E435" s="14" t="s">
+        <v>978</v>
+      </c>
+      <c r="F435" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G435" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H435" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I435" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J435" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K435" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L435" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M435" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="11">
+        <v>45550.710308912036</v>
+      </c>
+      <c r="B436" s="12" t="s">
+        <v>979</v>
+      </c>
+      <c r="C436" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D436" s="12">
+        <v>2.0212104E7</v>
+      </c>
+      <c r="E436" s="12" t="s">
+        <v>980</v>
+      </c>
+      <c r="F436" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G436" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H436" s="12">
+        <v>2012.0</v>
+      </c>
+      <c r="I436" s="12">
+        <v>2019.0</v>
+      </c>
+      <c r="J436" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K436" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L436" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N436" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="13">
+        <v>45550.716855798615</v>
+      </c>
+      <c r="B437" s="14" t="s">
+        <v>981</v>
+      </c>
+      <c r="C437" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D437" s="14">
+        <v>2.0243007E7</v>
+      </c>
+      <c r="E437" s="14" t="s">
+        <v>982</v>
+      </c>
+      <c r="F437" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G437" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H437" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I437" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J437" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K437" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L437" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M437" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="11">
+        <v>45550.72078876157</v>
+      </c>
+      <c r="B438" s="12" t="s">
+        <v>983</v>
+      </c>
+      <c r="C438" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D438" s="12">
+        <v>2.0242982E7</v>
+      </c>
+      <c r="E438" s="12" t="s">
+        <v>984</v>
+      </c>
+      <c r="F438" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G438" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H438" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I438" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J438" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K438" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L438" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N438" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="13">
+        <v>45550.7249618287</v>
+      </c>
+      <c r="B439" s="14" t="s">
+        <v>985</v>
+      </c>
+      <c r="C439" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D439" s="14">
+        <v>2.0192926E7</v>
+      </c>
+      <c r="E439" s="14" t="s">
+        <v>986</v>
+      </c>
+      <c r="F439" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G439" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H439" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I439" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J439" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K439" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L439" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M439" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="11">
+        <v>45550.74100055556</v>
+      </c>
+      <c r="B440" s="12" t="s">
+        <v>987</v>
+      </c>
+      <c r="C440" s="12" t="s">
+        <v>884</v>
+      </c>
+      <c r="D440" s="12">
+        <v>2.0232938E7</v>
+      </c>
+      <c r="E440" s="12" t="s">
+        <v>988</v>
+      </c>
+      <c r="F440" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G440" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H440" s="12">
+        <v>2012.0</v>
+      </c>
+      <c r="I440" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J440" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K440" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L440" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N440" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="13">
+        <v>45550.74125047454</v>
+      </c>
+      <c r="B441" s="14" t="s">
+        <v>989</v>
+      </c>
+      <c r="C441" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D441" s="14">
+        <v>2.0244123E7</v>
+      </c>
+      <c r="E441" s="14" t="s">
+        <v>990</v>
+      </c>
+      <c r="F441" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G441" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H441" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I441" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J441" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K441" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L441" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M441" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="11">
+        <v>45550.741691840274</v>
+      </c>
+      <c r="B442" s="12" t="s">
+        <v>991</v>
+      </c>
+      <c r="C442" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D442" s="12">
+        <v>2.0233849E7</v>
+      </c>
+      <c r="E442" s="12" t="s">
+        <v>992</v>
+      </c>
+      <c r="F442" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="G442" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H442" s="12">
+        <v>2012.0</v>
+      </c>
+      <c r="I442" s="12">
+        <v>2021.0</v>
+      </c>
+      <c r="J442" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K442" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L442" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N442" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="13">
+        <v>45550.74480756944</v>
+      </c>
+      <c r="B443" s="14" t="s">
+        <v>993</v>
+      </c>
+      <c r="C443" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D443" s="14">
+        <v>2.0245183E7</v>
+      </c>
+      <c r="E443" s="14" t="s">
+        <v>994</v>
+      </c>
+      <c r="F443" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G443" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H443" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I443" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J443" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K443" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L443" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N443" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="11">
+        <v>45550.745150312505</v>
+      </c>
+      <c r="B444" s="12" t="s">
+        <v>995</v>
+      </c>
+      <c r="C444" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="D444" s="12">
+        <v>2.0196532E7</v>
+      </c>
+      <c r="E444" s="12" t="s">
+        <v>996</v>
+      </c>
+      <c r="F444" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G444" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H444" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I444" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J444" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K444" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L444" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N444" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="13">
+        <v>45550.748773900465</v>
+      </c>
+      <c r="B445" s="14" t="s">
+        <v>997</v>
+      </c>
+      <c r="C445" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="D445" s="14">
+        <v>2.0222933E7</v>
+      </c>
+      <c r="E445" s="14" t="s">
+        <v>998</v>
+      </c>
+      <c r="F445" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G445" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H445" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I445" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J445" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K445" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L445" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N445" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="11">
+        <v>45550.76530738426</v>
+      </c>
+      <c r="B446" s="12" t="s">
+        <v>999</v>
+      </c>
+      <c r="C446" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D446" s="12">
+        <v>2.0212971E7</v>
+      </c>
+      <c r="E446" s="12" t="s">
+        <v>1000</v>
+      </c>
+      <c r="F446" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G446" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H446" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I446" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J446" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K446" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L446" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M446" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="13">
+        <v>45550.765830902776</v>
+      </c>
+      <c r="B447" s="14" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C447" s="14" t="s">
+        <v>490</v>
+      </c>
+      <c r="D447" s="14">
+        <v>2.0205217E7</v>
+      </c>
+      <c r="E447" s="14" t="s">
+        <v>1002</v>
+      </c>
+      <c r="F447" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G447" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H447" s="14">
+        <v>2022.0</v>
+      </c>
+      <c r="I447" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J447" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K447" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L447" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M447" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="11">
+        <v>45550.77202643518</v>
+      </c>
+      <c r="B448" s="12" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C448" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="D448" s="12">
+        <v>2.023172E7</v>
+      </c>
+      <c r="E448" s="12" t="s">
+        <v>1004</v>
+      </c>
+      <c r="F448" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G448" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H448" s="12">
+        <v>2012.0</v>
+      </c>
+      <c r="I448" s="12">
+        <v>2019.0</v>
+      </c>
+      <c r="J448" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K448" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L448" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M448" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="13">
+        <v>45550.78542990741</v>
+      </c>
+      <c r="B449" s="14" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C449" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D449" s="14">
+        <v>2.0203807E7</v>
+      </c>
+      <c r="E449" s="14" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F449" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G449" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H449" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I449" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J449" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K449" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L449" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N449" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="11">
+        <v>45550.80931917824</v>
+      </c>
+      <c r="B450" s="12" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C450" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D450" s="12">
+        <v>2.0227022E7</v>
+      </c>
+      <c r="E450" s="12" t="s">
+        <v>1008</v>
+      </c>
+      <c r="F450" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G450" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H450" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I450" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J450" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K450" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L450" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M450" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="13">
+        <v>45550.818383969905</v>
+      </c>
+      <c r="B451" s="14" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C451" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D451" s="14">
+        <v>2.0243905E7</v>
+      </c>
+      <c r="E451" s="14" t="s">
+        <v>1010</v>
+      </c>
+      <c r="F451" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G451" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H451" s="14">
+        <v>2022.0</v>
+      </c>
+      <c r="I451" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J451" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K451" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L451" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M451" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="11">
+        <v>45550.81942162037</v>
+      </c>
+      <c r="B452" s="12" t="s">
+        <v>1011</v>
+      </c>
+      <c r="C452" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="D452" s="12">
+        <v>2.0241605E7</v>
+      </c>
+      <c r="E452" s="12" t="s">
+        <v>1012</v>
+      </c>
+      <c r="F452" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G452" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H452" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I452" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J452" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K452" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L452" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N452" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="13">
+        <v>45550.82102481481</v>
+      </c>
+      <c r="B453" s="14" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C453" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D453" s="14">
+        <v>2.0227036E7</v>
+      </c>
+      <c r="E453" s="14" t="s">
+        <v>1014</v>
+      </c>
+      <c r="F453" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G453" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H453" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I453" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J453" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K453" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L453" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N453" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="11">
+        <v>45550.821724340276</v>
+      </c>
+      <c r="B454" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C454" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D454" s="12">
+        <v>2.0231062E7</v>
+      </c>
+      <c r="E454" s="12" t="s">
+        <v>1016</v>
+      </c>
+      <c r="F454" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G454" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H454" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I454" s="12">
+        <v>2019.0</v>
+      </c>
+      <c r="J454" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K454" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L454" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M454" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="13">
+        <v>45550.82183756944</v>
+      </c>
+      <c r="B455" s="14" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C455" s="14" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D455" s="14">
+        <v>2.0242111E7</v>
+      </c>
+      <c r="E455" s="14" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F455" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G455" s="14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H455" s="14">
+        <v>2022.0</v>
+      </c>
+      <c r="I455" s="14">
+        <v>2019.0</v>
+      </c>
+      <c r="J455" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K455" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L455" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M455" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="11">
+        <v>45550.82524104167</v>
+      </c>
+      <c r="B456" s="12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C456" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="D456" s="12">
+        <v>2.0215109E7</v>
+      </c>
+      <c r="E456" s="12" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F456" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G456" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H456" s="12">
+        <v>2022.0</v>
+      </c>
+      <c r="I456" s="12">
+        <v>2021.0</v>
+      </c>
+      <c r="J456" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K456" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L456" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M456" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="13">
+        <v>45550.828237141206</v>
+      </c>
+      <c r="B457" s="14" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C457" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D457" s="14">
+        <v>2.0234128E7</v>
+      </c>
+      <c r="E457" s="14" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F457" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G457" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H457" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I457" s="14">
+        <v>2021.0</v>
+      </c>
+      <c r="J457" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K457" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L457" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M457" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="11">
+        <v>45550.82900726852</v>
+      </c>
+      <c r="B458" s="12" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C458" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D458" s="12">
+        <v>2.0243826E7</v>
+      </c>
+      <c r="E458" s="12" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F458" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G458" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H458" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I458" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J458" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K458" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L458" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M458" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="13">
+        <v>45550.83173295139</v>
+      </c>
+      <c r="B459" s="14" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C459" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D459" s="14">
+        <v>2.0232335E7</v>
+      </c>
+      <c r="E459" s="14" t="s">
+        <v>1026</v>
+      </c>
+      <c r="F459" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G459" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H459" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I459" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J459" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K459" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L459" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M459" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="11">
+        <v>45550.83435430555</v>
+      </c>
+      <c r="B460" s="12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C460" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D460" s="12">
+        <v>2.0242613E7</v>
+      </c>
+      <c r="E460" s="12" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F460" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G460" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H460" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I460" s="12">
+        <v>2021.0</v>
+      </c>
+      <c r="J460" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K460" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L460" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N460" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="13">
+        <v>45550.84655783565</v>
+      </c>
+      <c r="B461" s="14" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C461" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="D461" s="14">
+        <v>2.0217173E7</v>
+      </c>
+      <c r="E461" s="14" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F461" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G461" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H461" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I461" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J461" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K461" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L461" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M461" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="11">
+        <v>45550.85037696759</v>
+      </c>
+      <c r="B462" s="12" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C462" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D462" s="12">
+        <v>2.0192936E7</v>
+      </c>
+      <c r="E462" s="12" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F462" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G462" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H462" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I462" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J462" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K462" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L462" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M462" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="13">
+        <v>45550.8524531713</v>
+      </c>
+      <c r="B463" s="14" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C463" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D463" s="14">
+        <v>2.0212549E7</v>
+      </c>
+      <c r="E463" s="14" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F463" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G463" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H463" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I463" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J463" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K463" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L463" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N463" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="11">
+        <v>45550.85332173611</v>
+      </c>
+      <c r="B464" s="12" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C464" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D464" s="12">
+        <v>2.0225117E7</v>
+      </c>
+      <c r="E464" s="12" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F464" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G464" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H464" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I464" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J464" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K464" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L464" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N464" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="13">
+        <v>45550.85708479167</v>
+      </c>
+      <c r="B465" s="14" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C465" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D465" s="14">
+        <v>2.0202925E7</v>
+      </c>
+      <c r="E465" s="14" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F465" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G465" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H465" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I465" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J465" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K465" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L465" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M465" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="11">
+        <v>45550.858458946765</v>
+      </c>
+      <c r="B466" s="12" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C466" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D466" s="12">
+        <v>2.0243008E7</v>
+      </c>
+      <c r="E466" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="F466" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G466" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H466" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I466" s="12">
+        <v>2021.0</v>
+      </c>
+      <c r="J466" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K466" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L466" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N466" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="13">
+        <v>45550.868690243056</v>
+      </c>
+      <c r="B467" s="14" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C467" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D467" s="14">
+        <v>2.0241017E7</v>
+      </c>
+      <c r="E467" s="14" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F467" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G467" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H467" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I467" s="14">
+        <v>2019.0</v>
+      </c>
+      <c r="J467" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K467" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L467" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M467" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="11">
+        <v>45550.87199465278</v>
+      </c>
+      <c r="B468" s="12" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C468" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D468" s="12">
+        <v>2.0221007E7</v>
+      </c>
+      <c r="E468" s="12" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F468" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G468" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H468" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I468" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J468" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K468" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L468" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N468" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="13">
+        <v>45550.88333571759</v>
+      </c>
+      <c r="B469" s="14" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C469" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D469" s="14">
+        <v>2.0217178E7</v>
+      </c>
+      <c r="E469" s="14" t="s">
+        <v>1045</v>
+      </c>
+      <c r="F469" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G469" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H469" s="14">
+        <v>2022.0</v>
+      </c>
+      <c r="I469" s="14">
+        <v>2019.0</v>
+      </c>
+      <c r="J469" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K469" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L469" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N469" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="11">
+        <v>45550.883815532405</v>
+      </c>
+      <c r="B470" s="12" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C470" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D470" s="12">
+        <v>2.0241509E7</v>
+      </c>
+      <c r="E470" s="12" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F470" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G470" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H470" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I470" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J470" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K470" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L470" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N470" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="13">
+        <v>45550.88479795139</v>
+      </c>
+      <c r="B471" s="14" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C471" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D471" s="14">
+        <v>2.024242E7</v>
+      </c>
+      <c r="E471" s="14" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F471" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G471" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H471" s="14">
+        <v>2022.0</v>
+      </c>
+      <c r="I471" s="14">
+        <v>2021.0</v>
+      </c>
+      <c r="J471" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K471" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L471" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N471" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="11">
+        <v>45550.88619659722</v>
+      </c>
+      <c r="B472" s="12" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C472" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D472" s="12">
+        <v>2.021284E7</v>
+      </c>
+      <c r="E472" s="12" t="s">
+        <v>1051</v>
+      </c>
+      <c r="F472" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G472" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H472" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I472" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J472" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K472" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L472" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M472" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="13">
+        <v>45550.89007111111</v>
+      </c>
+      <c r="B473" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C473" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D473" s="14">
+        <v>2.024321E7</v>
+      </c>
+      <c r="E473" s="14" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F473" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G473" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H473" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I473" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J473" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K473" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L473" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M473" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="11">
+        <v>45550.90146685185</v>
+      </c>
+      <c r="B474" s="12" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C474" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D474" s="12">
+        <v>2.0242753E7</v>
+      </c>
+      <c r="E474" s="12" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F474" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G474" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H474" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I474" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J474" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K474" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L474" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M474" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="13">
+        <v>45550.90325192129</v>
+      </c>
+      <c r="B475" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C475" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D475" s="14">
+        <v>2.0192616E7</v>
+      </c>
+      <c r="E475" s="14" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F475" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G475" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H475" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I475" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J475" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K475" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L475" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M475" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="11">
+        <v>45550.928145555554</v>
+      </c>
+      <c r="B476" s="12" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C476" s="12" t="s">
+        <v>858</v>
+      </c>
+      <c r="D476" s="12">
+        <v>2.0215269E7</v>
+      </c>
+      <c r="E476" s="12" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F476" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G476" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H476" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I476" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J476" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K476" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L476" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M476" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="13">
+        <v>45550.984097824075</v>
+      </c>
+      <c r="B477" s="14" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C477" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D477" s="14">
+        <v>2.0212603E7</v>
+      </c>
+      <c r="E477" s="14" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F477" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G477" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H477" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I477" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J477" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K477" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L477" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M477" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="11">
+        <v>45551.034490879625</v>
+      </c>
+      <c r="B478" s="12" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C478" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D478" s="12">
+        <v>2.0236615E7</v>
+      </c>
+      <c r="E478" s="12" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F478" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G478" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H478" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I478" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J478" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K478" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L478" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M478" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="13">
+        <v>45551.087324803244</v>
+      </c>
+      <c r="B479" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C479" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D479" s="14">
+        <v>2.024661E7</v>
+      </c>
+      <c r="E479" s="14" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F479" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G479" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H479" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I479" s="14">
+        <v>2021.0</v>
+      </c>
+      <c r="J479" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K479" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L479" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M479" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="11">
+        <v>45551.120369537035</v>
+      </c>
+      <c r="B480" s="12" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C480" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D480" s="12">
+        <v>2.0191084E7</v>
+      </c>
+      <c r="E480" s="12" t="s">
+        <v>1067</v>
+      </c>
+      <c r="F480" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G480" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H480" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I480" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J480" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K480" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L480" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M480" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="13">
+        <v>45551.380820763894</v>
+      </c>
+      <c r="B481" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C481" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D481" s="14">
+        <v>2.0242518E7</v>
+      </c>
+      <c r="E481" s="14" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F481" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G481" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H481" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I481" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J481" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K481" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L481" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M481" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="11">
+        <v>45551.449519016205</v>
+      </c>
+      <c r="B482" s="12" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C482" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D482" s="12">
+        <v>2.0245233E7</v>
+      </c>
+      <c r="E482" s="12" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F482" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G482" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H482" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I482" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J482" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K482" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L482" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M482" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="13">
+        <v>45551.467865914354</v>
+      </c>
+      <c r="B483" s="14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C483" s="14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="D483" s="14">
+        <v>2.0235198E7</v>
+      </c>
+      <c r="E483" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F483" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G483" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H483" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I483" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J483" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K483" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L483" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M483" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="11">
+        <v>45551.510732083334</v>
+      </c>
+      <c r="B484" s="12" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C484" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D484" s="12">
+        <v>2.0203026E7</v>
+      </c>
+      <c r="E484" s="12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F484" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G484" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H484" s="12">
+        <v>2022.0</v>
+      </c>
+      <c r="I484" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J484" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K484" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L484" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N484" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="13">
+        <v>45551.61820871528</v>
+      </c>
+      <c r="B485" s="14" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C485" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D485" s="14">
+        <v>2.0243703E7</v>
+      </c>
+      <c r="E485" s="14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F485" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G485" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H485" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I485" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J485" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K485" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L485" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N485" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="11">
+        <v>45551.7102183449</v>
+      </c>
+      <c r="B486" s="12" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C486" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D486" s="12">
+        <v>2.0245154E7</v>
+      </c>
+      <c r="E486" s="12" t="s">
+        <v>1080</v>
+      </c>
+      <c r="F486" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G486" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H486" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I486" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J486" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K486" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L486" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M486" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="13">
+        <v>45551.80385759259</v>
+      </c>
+      <c r="B487" s="14" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C487" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D487" s="14">
+        <v>2.0242749E7</v>
+      </c>
+      <c r="E487" s="14" t="s">
+        <v>1082</v>
+      </c>
+      <c r="F487" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G487" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H487" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I487" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J487" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K487" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L487" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N487" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="11">
+        <v>45551.910071921295</v>
+      </c>
+      <c r="B488" s="12" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C488" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D488" s="12">
+        <v>2.0243949E7</v>
+      </c>
+      <c r="E488" s="12" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F488" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G488" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H488" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I488" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J488" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K488" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L488" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N488" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="13">
+        <v>45551.96704560185</v>
+      </c>
+      <c r="B489" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C489" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D489" s="14">
+        <v>2.0246752E7</v>
+      </c>
+      <c r="E489" s="14" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F489" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G489" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H489" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I489" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J489" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K489" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L489" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N489" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="11">
+        <v>45551.96942822917</v>
+      </c>
+      <c r="B490" s="12" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C490" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D490" s="12">
+        <v>2.0243829E7</v>
+      </c>
+      <c r="E490" s="12" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F490" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G490" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H490" s="12">
+        <v>2012.0</v>
+      </c>
+      <c r="I490" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J490" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K490" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L490" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N490" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="13">
+        <v>45551.97581484954</v>
+      </c>
+      <c r="B491" s="14" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C491" s="14" t="s">
+        <v>698</v>
+      </c>
+      <c r="D491" s="14">
+        <v>2.0243354E7</v>
+      </c>
+      <c r="E491" s="14" t="s">
+        <v>1090</v>
+      </c>
+      <c r="F491" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G491" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H491" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I491" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J491" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K491" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L491" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N491" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="11">
+        <v>45552.024969502316</v>
+      </c>
+      <c r="B492" s="12" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C492" s="12" t="s">
+        <v>937</v>
+      </c>
+      <c r="D492" s="12">
+        <v>2.0195225E7</v>
+      </c>
+      <c r="E492" s="12" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F492" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G492" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H492" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I492" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J492" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K492" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L492" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M492" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="13">
+        <v>45552.05913366898</v>
+      </c>
+      <c r="B493" s="14" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C493" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D493" s="14">
+        <v>2.018109E7</v>
+      </c>
+      <c r="E493" s="14" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F493" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G493" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H493" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I493" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J493" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K493" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L493" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M493" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="11">
+        <v>45552.06000331018</v>
+      </c>
+      <c r="B494" s="12" t="s">
+        <v>1095</v>
+      </c>
+      <c r="C494" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="D494" s="12">
+        <v>2.0241047E7</v>
+      </c>
+      <c r="E494" s="12" t="s">
+        <v>1096</v>
+      </c>
+      <c r="F494" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G494" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H494" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I494" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J494" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K494" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L494" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N494" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="13">
+        <v>45552.349589143516</v>
+      </c>
+      <c r="B495" s="14" t="s">
+        <v>1097</v>
+      </c>
+      <c r="C495" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D495" s="14">
+        <v>2.0242737E7</v>
+      </c>
+      <c r="E495" s="14" t="s">
+        <v>1098</v>
+      </c>
+      <c r="F495" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G495" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H495" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I495" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J495" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K495" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L495" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M495" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="11">
+        <v>45552.455689571754</v>
+      </c>
+      <c r="B496" s="12" t="s">
+        <v>1099</v>
+      </c>
+      <c r="C496" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D496" s="12">
+        <v>2.0182308E7</v>
+      </c>
+      <c r="E496" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F496" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G496" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H496" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I496" s="12">
+        <v>2021.0</v>
+      </c>
+      <c r="J496" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K496" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L496" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M496" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="13">
+        <v>45552.56900199074</v>
+      </c>
+      <c r="B497" s="14" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C497" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D497" s="14">
+        <v>2.0171035E7</v>
+      </c>
+      <c r="E497" s="14" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F497" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G497" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H497" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I497" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J497" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K497" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L497" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M497" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="11">
+        <v>45552.63877331019</v>
+      </c>
+      <c r="B498" s="12" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C498" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D498" s="12">
+        <v>2.0242728E7</v>
+      </c>
+      <c r="E498" s="12" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F498" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G498" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H498" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I498" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J498" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K498" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L498" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N498" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="13">
+        <v>45552.7124409838</v>
+      </c>
+      <c r="B499" s="14" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C499" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D499" s="14">
+        <v>2.0243001E7</v>
+      </c>
+      <c r="E499" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="F499" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G499" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H499" s="14">
+        <v>2022.0</v>
+      </c>
+      <c r="I499" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J499" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K499" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L499" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N499" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="11">
+        <v>45552.74694084491</v>
+      </c>
+      <c r="B500" s="12" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C500" s="12" t="s">
+        <v>349</v>
+      </c>
+      <c r="D500" s="12">
+        <v>2.0193305E7</v>
+      </c>
+      <c r="E500" s="12" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F500" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G500" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H500" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I500" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J500" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K500" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L500" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N500" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="13">
+        <v>45552.825578159725</v>
+      </c>
+      <c r="B501" s="14" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C501" s="14" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D501" s="14">
+        <v>2.0243032E7</v>
+      </c>
+      <c r="E501" s="14" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F501" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G501" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H501" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I501" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J501" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K501" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L501" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N501" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="11">
+        <v>45552.98520922454</v>
+      </c>
+      <c r="B502" s="12" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C502" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D502" s="12">
+        <v>2.022283E7</v>
+      </c>
+      <c r="E502" s="12" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F502" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G502" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H502" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I502" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J502" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K502" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L502" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M502" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="13">
+        <v>45552.98581885417</v>
+      </c>
+      <c r="B503" s="14" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C503" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D503" s="14">
+        <v>2.0243921E7</v>
+      </c>
+      <c r="E503" s="14" t="s">
+        <v>1113</v>
+      </c>
+      <c r="F503" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G503" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H503" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I503" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J503" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K503" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L503" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M503" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="11">
+        <v>45553.072374062496</v>
+      </c>
+      <c r="B504" s="12" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C504" s="12" t="s">
+        <v>601</v>
+      </c>
+      <c r="D504" s="12">
+        <v>2.0205167E7</v>
+      </c>
+      <c r="E504" s="12" t="s">
+        <v>1115</v>
+      </c>
+      <c r="F504" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G504" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H504" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I504" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J504" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K504" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L504" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N504" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="13">
+        <v>45553.53641539352</v>
+      </c>
+      <c r="B505" s="14" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C505" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D505" s="14">
+        <v>2.0243815E7</v>
+      </c>
+      <c r="E505" s="14" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F505" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G505" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H505" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I505" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J505" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K505" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L505" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N505" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="11">
+        <v>45553.575613865745</v>
+      </c>
+      <c r="B506" s="12" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C506" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D506" s="12">
+        <v>2.0223739E7</v>
+      </c>
+      <c r="E506" s="12" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F506" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G506" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H506" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I506" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J506" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K506" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L506" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M506" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="13">
+        <v>45553.60808680556</v>
+      </c>
+      <c r="B507" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C507" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D507" s="14">
+        <v>2.0172433E7</v>
+      </c>
+      <c r="E507" s="14" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F507" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G507" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H507" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I507" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J507" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K507" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L507" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N507" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="11">
+        <v>45553.62015023148</v>
+      </c>
+      <c r="B508" s="12" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C508" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D508" s="12">
+        <v>2.0243715E7</v>
+      </c>
+      <c r="E508" s="12" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F508" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G508" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H508" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I508" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J508" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K508" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L508" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M508" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="13">
+        <v>45553.705887488424</v>
+      </c>
+      <c r="B509" s="14" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C509" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D509" s="14">
+        <v>2.024519E7</v>
+      </c>
+      <c r="E509" s="14" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F509" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G509" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H509" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I509" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J509" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K509" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L509" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M509" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="11">
+        <v>45553.749312280095</v>
+      </c>
+      <c r="B510" s="12" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C510" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D510" s="12">
+        <v>2.0242418E7</v>
+      </c>
+      <c r="E510" s="12" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F510" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G510" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H510" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I510" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J510" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K510" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L510" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M510" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="13">
+        <v>45553.77649913194</v>
+      </c>
+      <c r="B511" s="14" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C511" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D511" s="14">
+        <v>2.0192986E7</v>
+      </c>
+      <c r="E511" s="14" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F511" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G511" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H511" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I511" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J511" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K511" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L511" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N511" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="11">
+        <v>45553.7934393287</v>
+      </c>
+      <c r="B512" s="12" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C512" s="12" t="s">
+        <v>1131</v>
+      </c>
+      <c r="D512" s="12">
+        <v>2.0215199E7</v>
+      </c>
+      <c r="E512" s="12" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F512" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G512" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H512" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I512" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J512" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K512" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L512" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N512" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="13">
+        <v>45553.79827734954</v>
+      </c>
+      <c r="B513" s="14" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C513" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D513" s="14">
+        <v>2.0202719E7</v>
+      </c>
+      <c r="E513" s="14" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F513" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G513" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H513" s="14">
+        <v>2012.0</v>
+      </c>
+      <c r="I513" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J513" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K513" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L513" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M513" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="11">
+        <v>45553.82989050926</v>
+      </c>
+      <c r="B514" s="12" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C514" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D514" s="12">
+        <v>2.0242423E7</v>
+      </c>
+      <c r="E514" s="12" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F514" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G514" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H514" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I514" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J514" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K514" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L514" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N514" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="13">
+        <v>45553.832710057875</v>
+      </c>
+      <c r="B515" s="14" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C515" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D515" s="14">
+        <v>2.0213235E7</v>
+      </c>
+      <c r="E515" s="14" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F515" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G515" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H515" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I515" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J515" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K515" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L515" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N515" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="11">
+        <v>45553.852707743055</v>
+      </c>
+      <c r="B516" s="12" t="s">
+        <v>1139</v>
+      </c>
+      <c r="C516" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D516" s="12">
+        <v>2.0171101E7</v>
+      </c>
+      <c r="E516" s="12" t="s">
+        <v>1140</v>
+      </c>
+      <c r="F516" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G516" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H516" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I516" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J516" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K516" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L516" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M516" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="13">
+        <v>45553.888596377314</v>
+      </c>
+      <c r="B517" s="14" t="s">
+        <v>1141</v>
+      </c>
+      <c r="C517" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D517" s="14">
+        <v>2.0242342E7</v>
+      </c>
+      <c r="E517" s="14" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F517" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G517" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H517" s="14">
+        <v>2012.0</v>
+      </c>
+      <c r="I517" s="14">
+        <v>2021.0</v>
+      </c>
+      <c r="J517" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K517" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L517" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M517" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="11">
+        <v>45553.95298637731</v>
+      </c>
+      <c r="B518" s="12" t="s">
+        <v>1143</v>
+      </c>
+      <c r="C518" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D518" s="12">
+        <v>2.024693E7</v>
+      </c>
+      <c r="E518" s="12" t="s">
+        <v>1144</v>
+      </c>
+      <c r="F518" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G518" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H518" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I518" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J518" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K518" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L518" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M518" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="13">
+        <v>45553.962572881945</v>
+      </c>
+      <c r="B519" s="14" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C519" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D519" s="14">
+        <v>2.0205182E7</v>
+      </c>
+      <c r="E519" s="14" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F519" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G519" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H519" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I519" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J519" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K519" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L519" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M519" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="11">
+        <v>45553.96451847222</v>
+      </c>
+      <c r="B520" s="12" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C520" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D520" s="12">
+        <v>2.0201108E7</v>
+      </c>
+      <c r="E520" s="12" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F520" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G520" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H520" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I520" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J520" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K520" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L520" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M520" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="13">
+        <v>45554.000304560184</v>
+      </c>
+      <c r="B521" s="14" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C521" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D521" s="14">
+        <v>2.0231622E7</v>
+      </c>
+      <c r="E521" s="14" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F521" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G521" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H521" s="14">
+        <v>2022.0</v>
+      </c>
+      <c r="I521" s="14">
+        <v>2019.0</v>
+      </c>
+      <c r="J521" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K521" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L521" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M521" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="11">
+        <v>45554.0245492824</v>
+      </c>
+      <c r="B522" s="12" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C522" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D522" s="12">
+        <v>2.0227143E7</v>
+      </c>
+      <c r="E522" s="12" t="s">
+        <v>1152</v>
+      </c>
+      <c r="F522" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G522" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H522" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I522" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J522" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K522" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L522" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M522" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="13">
+        <v>45554.035878414354</v>
+      </c>
+      <c r="B523" s="14" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C523" s="14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="D523" s="14">
+        <v>2.0216609E7</v>
+      </c>
+      <c r="E523" s="14" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F523" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G523" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H523" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I523" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J523" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K523" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L523" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N523" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="11">
+        <v>45554.40307049769</v>
+      </c>
+      <c r="B524" s="12" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C524" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D524" s="12">
+        <v>2.0242971E7</v>
+      </c>
+      <c r="E524" s="12" t="s">
+        <v>1157</v>
+      </c>
+      <c r="F524" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G524" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H524" s="12">
+        <v>2012.0</v>
+      </c>
+      <c r="I524" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J524" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K524" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L524" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M524" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="13">
+        <v>45554.42149769676</v>
+      </c>
+      <c r="B525" s="14" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C525" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D525" s="14">
+        <v>2.0232941E7</v>
+      </c>
+      <c r="E525" s="14" t="s">
+        <v>465</v>
+      </c>
+      <c r="F525" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G525" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H525" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I525" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J525" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K525" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L525" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N525" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="11">
+        <v>45554.45149181713</v>
+      </c>
+      <c r="B526" s="12" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C526" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="D526" s="12">
+        <v>2.0242225E7</v>
+      </c>
+      <c r="E526" s="12" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F526" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G526" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H526" s="12">
+        <v>2022.0</v>
+      </c>
+      <c r="I526" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J526" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K526" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L526" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N526" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="13">
+        <v>45554.507818321756</v>
+      </c>
+      <c r="B527" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C527" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D527" s="14">
+        <v>2.0242439E7</v>
+      </c>
+      <c r="E527" s="14" t="s">
+        <v>1162</v>
+      </c>
+      <c r="F527" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G527" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H527" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I527" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J527" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K527" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L527" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M527" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="11">
+        <v>45554.50918631944</v>
+      </c>
+      <c r="B528" s="12" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C528" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D528" s="12">
+        <v>2.023243E7</v>
+      </c>
+      <c r="E528" s="12" t="s">
+        <v>1164</v>
+      </c>
+      <c r="F528" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G528" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H528" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I528" s="12">
+        <v>2019.0</v>
+      </c>
+      <c r="J528" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K528" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L528" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N528" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="13">
+        <v>45554.517331967596</v>
+      </c>
+      <c r="B529" s="14" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C529" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D529" s="14">
+        <v>2.0243238E7</v>
+      </c>
+      <c r="E529" s="14" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F529" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G529" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H529" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I529" s="14">
+        <v>2021.0</v>
+      </c>
+      <c r="J529" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K529" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L529" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M529" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="11">
+        <v>45554.535874375</v>
+      </c>
+      <c r="B530" s="12" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C530" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D530" s="12">
+        <v>2.0233717E7</v>
+      </c>
+      <c r="E530" s="12" t="s">
+        <v>1168</v>
+      </c>
+      <c r="F530" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G530" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H530" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I530" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J530" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K530" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L530" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N530" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="13">
+        <v>45554.54208728009</v>
+      </c>
+      <c r="B531" s="14" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C531" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D531" s="14">
+        <v>2.0241077E7</v>
+      </c>
+      <c r="E531" s="14" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F531" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G531" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H531" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I531" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J531" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K531" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L531" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M531" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="11">
+        <v>45554.58073958333</v>
+      </c>
+      <c r="B532" s="12" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C532" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D532" s="12">
+        <v>2.0223224E7</v>
+      </c>
+      <c r="E532" s="12" t="s">
+        <v>1172</v>
+      </c>
+      <c r="F532" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G532" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H532" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I532" s="12">
+        <v>2019.0</v>
+      </c>
+      <c r="J532" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K532" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L532" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M532" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="13">
+        <v>45554.59984784722</v>
+      </c>
+      <c r="B533" s="14" t="s">
+        <v>574</v>
+      </c>
+      <c r="C533" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D533" s="14">
+        <v>2.0242618E7</v>
+      </c>
+      <c r="E533" s="14" t="s">
+        <v>575</v>
+      </c>
+      <c r="F533" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G533" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H533" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I533" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J533" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K533" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L533" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M533" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="11">
+        <v>45554.66826086806</v>
+      </c>
+      <c r="B534" s="12" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C534" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D534" s="12">
+        <v>2.0231101E7</v>
+      </c>
+      <c r="E534" s="12" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F534" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G534" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H534" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I534" s="12">
+        <v>2019.0</v>
+      </c>
+      <c r="J534" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K534" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L534" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M534" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="13">
+        <v>45554.68899880787</v>
+      </c>
+      <c r="B535" s="14" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C535" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D535" s="14">
+        <v>2.024677E7</v>
+      </c>
+      <c r="E535" s="14" t="s">
+        <v>1176</v>
+      </c>
+      <c r="F535" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G535" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H535" s="14">
+        <v>2022.0</v>
+      </c>
+      <c r="I535" s="14">
+        <v>2019.0</v>
+      </c>
+      <c r="J535" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K535" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L535" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M535" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="11">
+        <v>45554.690041875</v>
+      </c>
+      <c r="B536" s="12" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C536" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D536" s="12">
+        <v>2.0243723E7</v>
+      </c>
+      <c r="E536" s="12" t="s">
+        <v>1178</v>
+      </c>
+      <c r="F536" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G536" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H536" s="12">
+        <v>2022.0</v>
+      </c>
+      <c r="I536" s="12">
+        <v>2019.0</v>
+      </c>
+      <c r="J536" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K536" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L536" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N536" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="13">
+        <v>45554.69123271991</v>
+      </c>
+      <c r="B537" s="14" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C537" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D537" s="14">
+        <v>2.0246776E7</v>
+      </c>
+      <c r="E537" s="14" t="s">
+        <v>1180</v>
+      </c>
+      <c r="F537" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G537" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H537" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I537" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J537" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K537" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L537" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M537" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="11">
+        <v>45554.69773813657</v>
+      </c>
+      <c r="B538" s="12" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C538" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D538" s="12">
+        <v>2.0222122E7</v>
+      </c>
+      <c r="E538" s="12" t="s">
+        <v>1182</v>
+      </c>
+      <c r="F538" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G538" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H538" s="12">
+        <v>2012.0</v>
+      </c>
+      <c r="I538" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J538" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K538" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L538" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M538" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="13">
+        <v>45554.70747774305</v>
+      </c>
+      <c r="B539" s="14" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C539" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D539" s="14">
+        <v>2.0242732E7</v>
+      </c>
+      <c r="E539" s="14" t="s">
+        <v>1184</v>
+      </c>
+      <c r="F539" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G539" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H539" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I539" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J539" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K539" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L539" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N539" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="11">
+        <v>45554.74479765046</v>
+      </c>
+      <c r="B540" s="12" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C540" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D540" s="12">
+        <v>2.0245176E7</v>
+      </c>
+      <c r="E540" s="12" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F540" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G540" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H540" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I540" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J540" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K540" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L540" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M540" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="13">
+        <v>45554.77064802083</v>
+      </c>
+      <c r="B541" s="14" t="s">
+        <v>1187</v>
+      </c>
+      <c r="C541" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="D541" s="14">
+        <v>2.0213219E7</v>
+      </c>
+      <c r="E541" s="14" t="s">
+        <v>1188</v>
+      </c>
+      <c r="F541" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G541" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H541" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I541" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J541" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K541" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L541" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M541" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="11">
+        <v>45554.78409421296</v>
+      </c>
+      <c r="B542" s="12" t="s">
+        <v>1189</v>
+      </c>
+      <c r="C542" s="12" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D542" s="12">
+        <v>2.0202431E7</v>
+      </c>
+      <c r="E542" s="12" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F542" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G542" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H542" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I542" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J542" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K542" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L542" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M542" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="13">
+        <v>45554.789552800925</v>
+      </c>
+      <c r="B543" s="14" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C543" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D543" s="14">
+        <v>2.022704E7</v>
+      </c>
+      <c r="E543" s="14" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F543" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="G543" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H543" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I543" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J543" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K543" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L543" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M543" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="11">
+        <v>45554.80176971065</v>
+      </c>
+      <c r="B544" s="12" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C544" s="12" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D544" s="12">
+        <v>2.0205206E7</v>
+      </c>
+      <c r="E544" s="12" t="s">
+        <v>1196</v>
+      </c>
+      <c r="F544" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G544" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H544" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I544" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J544" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K544" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L544" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N544" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="13">
+        <v>45554.86001591435</v>
+      </c>
+      <c r="B545" s="14" t="s">
+        <v>1197</v>
+      </c>
+      <c r="C545" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D545" s="14">
+        <v>2.0243814E7</v>
+      </c>
+      <c r="E545" s="14" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F545" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G545" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H545" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I545" s="14">
+        <v>2019.0</v>
+      </c>
+      <c r="J545" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K545" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L545" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M545" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="17">
+        <v>45554.87712017361</v>
+      </c>
+      <c r="B546" s="18" t="s">
+        <v>1199</v>
+      </c>
+      <c r="C546" s="18" t="s">
+        <v>1200</v>
+      </c>
+      <c r="D546" s="18">
+        <v>2.0243368E7</v>
+      </c>
+      <c r="E546" s="18" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F546" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G546" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H546" s="18">
+        <v>2017.0</v>
+      </c>
+      <c r="I546" s="18">
+        <v>2018.0</v>
+      </c>
+      <c r="J546" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K546" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L546" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M546" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz240909_tmp.xlsx
+++ b/R/data/quiz240909_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4919" uniqueCount="1202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5019" uniqueCount="1226">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -3617,6 +3617,78 @@
   </si>
   <si>
     <t>황유민</t>
+  </si>
+  <si>
+    <t>na1448@naver.com</t>
+  </si>
+  <si>
+    <t>강나현</t>
+  </si>
+  <si>
+    <t>hmg4898@naver.com</t>
+  </si>
+  <si>
+    <t>철학전공</t>
+  </si>
+  <si>
+    <t>한민교</t>
+  </si>
+  <si>
+    <t>krcar1002@gmail.com</t>
+  </si>
+  <si>
+    <t>2024210*9</t>
+  </si>
+  <si>
+    <t>김재호</t>
+  </si>
+  <si>
+    <t>asdigydus@gmail.com</t>
+  </si>
+  <si>
+    <t>김지윤</t>
+  </si>
+  <si>
+    <t>bluelion-gbn9981@naver.com</t>
+  </si>
+  <si>
+    <t>구보늬</t>
+  </si>
+  <si>
+    <t>tqwquqqi@naver.com</t>
+  </si>
+  <si>
+    <t>강하늘</t>
+  </si>
+  <si>
+    <t>jech1088@gmail.com</t>
+  </si>
+  <si>
+    <t>정주한</t>
+  </si>
+  <si>
+    <t>20182346@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이용재</t>
+  </si>
+  <si>
+    <t>mingtto0920@gmail.com</t>
+  </si>
+  <si>
+    <t>유민서</t>
+  </si>
+  <si>
+    <t>lendjo@naver.com</t>
+  </si>
+  <si>
+    <t>오한별</t>
+  </si>
+  <si>
+    <t>4262candy@naver.com</t>
+  </si>
+  <si>
+    <t>최윤진</t>
   </si>
 </sst>
 </file>
@@ -3647,7 +3719,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -3780,10 +3852,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3791,13 +3863,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3807,7 +3893,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3863,6 +3949,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -3923,7 +4012,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N546" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N557" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -26514,44 +26603,495 @@
       </c>
     </row>
     <row r="546">
-      <c r="A546" s="17">
+      <c r="A546" s="11">
         <v>45554.87712017361</v>
       </c>
-      <c r="B546" s="18" t="s">
+      <c r="B546" s="12" t="s">
         <v>1199</v>
       </c>
-      <c r="C546" s="18" t="s">
+      <c r="C546" s="12" t="s">
         <v>1200</v>
       </c>
-      <c r="D546" s="18">
+      <c r="D546" s="12">
         <v>2.0243368E7</v>
       </c>
-      <c r="E546" s="18" t="s">
+      <c r="E546" s="12" t="s">
         <v>1201</v>
       </c>
-      <c r="F546" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G546" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H546" s="18">
-        <v>2017.0</v>
-      </c>
-      <c r="I546" s="18">
+      <c r="F546" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G546" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H546" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I546" s="12">
         <v>2018.0</v>
       </c>
-      <c r="J546" s="18" t="s">
+      <c r="J546" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K546" s="18" t="s">
+      <c r="K546" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L546" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M546" s="18" t="s">
+      <c r="L546" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M546" s="12" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="13">
+        <v>45554.9093799074</v>
+      </c>
+      <c r="B547" s="14" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C547" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D547" s="14">
+        <v>2.0243601E7</v>
+      </c>
+      <c r="E547" s="14" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F547" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G547" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H547" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I547" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J547" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K547" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L547" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N547" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="11">
+        <v>45554.92640701389</v>
+      </c>
+      <c r="B548" s="12" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C548" s="12" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D548" s="12">
+        <v>2.0191106E7</v>
+      </c>
+      <c r="E548" s="12" t="s">
+        <v>1206</v>
+      </c>
+      <c r="F548" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G548" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H548" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I548" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J548" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K548" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L548" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N548" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="13">
+        <v>45554.9358533912</v>
+      </c>
+      <c r="B549" s="14" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C549" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D549" s="14" t="s">
+        <v>1208</v>
+      </c>
+      <c r="E549" s="14" t="s">
+        <v>1209</v>
+      </c>
+      <c r="F549" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G549" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H549" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I549" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J549" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K549" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L549" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N549" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="11">
+        <v>45554.93940974537</v>
+      </c>
+      <c r="B550" s="12" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C550" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D550" s="12">
+        <v>2.0243912E7</v>
+      </c>
+      <c r="E550" s="12" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F550" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G550" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H550" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I550" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J550" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K550" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L550" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M550" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="13">
+        <v>45554.97111576389</v>
+      </c>
+      <c r="B551" s="14" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C551" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D551" s="14">
+        <v>2.0243403E7</v>
+      </c>
+      <c r="E551" s="14" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F551" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G551" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H551" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I551" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J551" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K551" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L551" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N551" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="11">
+        <v>45554.99424457176</v>
+      </c>
+      <c r="B552" s="12" t="s">
+        <v>1214</v>
+      </c>
+      <c r="C552" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D552" s="12">
+        <v>2.0222905E7</v>
+      </c>
+      <c r="E552" s="12" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F552" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G552" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H552" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I552" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J552" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K552" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L552" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N552" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="13">
+        <v>45555.02854133102</v>
+      </c>
+      <c r="B553" s="14" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C553" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D553" s="14">
+        <v>2.0241633E7</v>
+      </c>
+      <c r="E553" s="14" t="s">
+        <v>1217</v>
+      </c>
+      <c r="F553" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G553" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H553" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I553" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J553" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K553" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L553" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N553" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="11">
+        <v>45555.03135260417</v>
+      </c>
+      <c r="B554" s="12" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C554" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D554" s="12">
+        <v>2.0182346E7</v>
+      </c>
+      <c r="E554" s="12" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F554" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G554" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H554" s="12">
+        <v>2012.0</v>
+      </c>
+      <c r="I554" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J554" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K554" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L554" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M554" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="13">
+        <v>45555.03387890046</v>
+      </c>
+      <c r="B555" s="14" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C555" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D555" s="14">
+        <v>2.024254E7</v>
+      </c>
+      <c r="E555" s="14" t="s">
+        <v>1221</v>
+      </c>
+      <c r="F555" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G555" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H555" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I555" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J555" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K555" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L555" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N555" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="11">
+        <v>45555.37795574074</v>
+      </c>
+      <c r="B556" s="12" t="s">
+        <v>1222</v>
+      </c>
+      <c r="C556" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D556" s="12">
+        <v>2.0242625E7</v>
+      </c>
+      <c r="E556" s="12" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F556" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G556" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H556" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I556" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J556" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K556" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L556" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M556" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="17">
+        <v>45555.44082506944</v>
+      </c>
+      <c r="B557" s="18" t="s">
+        <v>1224</v>
+      </c>
+      <c r="C557" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D557" s="18">
+        <v>2024308.0</v>
+      </c>
+      <c r="E557" s="18" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F557" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G557" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H557" s="18">
+        <v>2017.0</v>
+      </c>
+      <c r="I557" s="18">
+        <v>2018.0</v>
+      </c>
+      <c r="J557" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="K557" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="L557" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N557" s="19" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz240909_tmp.xlsx
+++ b/R/data/quiz240909_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5604" uniqueCount="1357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="1393">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4082,6 +4082,114 @@
   </si>
   <si>
     <t>신수연</t>
+  </si>
+  <si>
+    <t>20235263@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>최서윤</t>
+  </si>
+  <si>
+    <t>opix97@naver.com</t>
+  </si>
+  <si>
+    <t>조성훈</t>
+  </si>
+  <si>
+    <t>sumine0601@naver.com</t>
+  </si>
+  <si>
+    <t>장수민</t>
+  </si>
+  <si>
+    <t>hantin123@naver.com</t>
+  </si>
+  <si>
+    <t>한선근</t>
+  </si>
+  <si>
+    <t>03jungwoo@naver.com</t>
+  </si>
+  <si>
+    <t>김정우</t>
+  </si>
+  <si>
+    <t>tlsdmsco1130@naver.com</t>
+  </si>
+  <si>
+    <t>신은채</t>
+  </si>
+  <si>
+    <t>lovearamis3@gmail.com</t>
+  </si>
+  <si>
+    <t>정현우</t>
+  </si>
+  <si>
+    <t>chlwnstn777@naver.com</t>
+  </si>
+  <si>
+    <t>빅데터전공</t>
+  </si>
+  <si>
+    <t>최준수</t>
+  </si>
+  <si>
+    <t>leehanseo0521@naver.com</t>
+  </si>
+  <si>
+    <t>이한서</t>
+  </si>
+  <si>
+    <t>jhkm7400@gmail.com</t>
+  </si>
+  <si>
+    <t>김유건</t>
+  </si>
+  <si>
+    <t>a01053859627@gmail.com</t>
+  </si>
+  <si>
+    <t>이용환</t>
+  </si>
+  <si>
+    <t>a35142191@gmail.com</t>
+  </si>
+  <si>
+    <t>이윤재</t>
+  </si>
+  <si>
+    <t>emf1811@naver.com</t>
+  </si>
+  <si>
+    <t>김들</t>
+  </si>
+  <si>
+    <t>kte1785@naver.com</t>
+  </si>
+  <si>
+    <t>wlghd2352@naver.com</t>
+  </si>
+  <si>
+    <t>안지홍</t>
+  </si>
+  <si>
+    <t>dmsdn6462@naver.com</t>
+  </si>
+  <si>
+    <t>김은우</t>
+  </si>
+  <si>
+    <t>jyj111212@naver.com</t>
+  </si>
+  <si>
+    <t>장예지</t>
+  </si>
+  <si>
+    <t>bmj4033@gmail.com</t>
+  </si>
+  <si>
+    <t>백민제</t>
   </si>
 </sst>
 </file>
@@ -4112,7 +4220,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -4268,25 +4376,11 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -4342,9 +4436,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -4405,7 +4496,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N622" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N640" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -30112,44 +30203,782 @@
       </c>
     </row>
     <row r="622">
-      <c r="A622" s="17">
+      <c r="A622" s="11">
         <v>45556.98905986111</v>
       </c>
-      <c r="B622" s="18" t="s">
+      <c r="B622" s="12" t="s">
         <v>1355</v>
       </c>
-      <c r="C622" s="18" t="s">
+      <c r="C622" s="12" t="s">
         <v>349</v>
       </c>
-      <c r="D622" s="18">
+      <c r="D622" s="12">
         <v>2.0223325E7</v>
       </c>
-      <c r="E622" s="18" t="s">
+      <c r="E622" s="12" t="s">
         <v>1356</v>
       </c>
-      <c r="F622" s="18" t="s">
+      <c r="F622" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G622" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H622" s="18">
-        <v>2017.0</v>
-      </c>
-      <c r="I622" s="18">
+      <c r="G622" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H622" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I622" s="12">
         <v>2019.0</v>
       </c>
-      <c r="J622" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K622" s="18" t="s">
+      <c r="J622" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K622" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L622" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="N622" s="19" t="s">
+      <c r="L622" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N622" s="16" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="13">
+        <v>45556.9924246875</v>
+      </c>
+      <c r="B623" s="14" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C623" s="14" t="s">
+        <v>1195</v>
+      </c>
+      <c r="D623" s="14">
+        <v>2.0235263E7</v>
+      </c>
+      <c r="E623" s="14" t="s">
+        <v>1358</v>
+      </c>
+      <c r="F623" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G623" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H623" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I623" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J623" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K623" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L623" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M623" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="11">
+        <v>45556.99361579861</v>
+      </c>
+      <c r="B624" s="12" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C624" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D624" s="12">
+        <v>2.0162755E7</v>
+      </c>
+      <c r="E624" s="12" t="s">
+        <v>1360</v>
+      </c>
+      <c r="F624" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G624" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H624" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I624" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J624" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K624" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L624" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M624" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="13">
+        <v>45556.99440826389</v>
+      </c>
+      <c r="B625" s="14" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C625" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="D625" s="14">
+        <v>2.0202637E7</v>
+      </c>
+      <c r="E625" s="14" t="s">
+        <v>1362</v>
+      </c>
+      <c r="F625" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G625" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H625" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I625" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J625" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K625" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L625" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N625" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="11">
+        <v>45557.00652744213</v>
+      </c>
+      <c r="B626" s="12" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C626" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D626" s="12">
+        <v>2.0213644E7</v>
+      </c>
+      <c r="E626" s="12" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F626" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G626" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H626" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I626" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J626" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K626" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L626" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N626" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="13">
+        <v>45557.00679083333</v>
+      </c>
+      <c r="B627" s="14" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C627" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D627" s="14">
+        <v>2.0242515E7</v>
+      </c>
+      <c r="E627" s="14" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F627" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G627" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H627" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I627" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J627" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K627" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L627" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M627" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="11">
+        <v>45557.02315811343</v>
+      </c>
+      <c r="B628" s="12" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C628" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D628" s="12">
+        <v>2.0242532E7</v>
+      </c>
+      <c r="E628" s="12" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F628" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G628" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H628" s="12">
+        <v>2022.0</v>
+      </c>
+      <c r="I628" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J628" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K628" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L628" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M628" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="13">
+        <v>45557.03656436343</v>
+      </c>
+      <c r="B629" s="14" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C629" s="14" t="s">
+        <v>386</v>
+      </c>
+      <c r="D629" s="14">
+        <v>2.0203251E7</v>
+      </c>
+      <c r="E629" s="14" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F629" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G629" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H629" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I629" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J629" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K629" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L629" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M629" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="11">
+        <v>45557.040992951384</v>
+      </c>
+      <c r="B630" s="12" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C630" s="12" t="s">
+        <v>1372</v>
+      </c>
+      <c r="D630" s="12">
+        <v>2.0193844E7</v>
+      </c>
+      <c r="E630" s="12" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F630" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G630" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H630" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I630" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J630" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K630" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L630" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M630" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="13">
+        <v>45557.06616725694</v>
+      </c>
+      <c r="B631" s="14" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C631" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D631" s="14">
+        <v>2.0236283E7</v>
+      </c>
+      <c r="E631" s="14" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F631" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G631" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H631" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I631" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J631" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K631" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L631" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N631" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="11">
+        <v>45557.07325934028</v>
+      </c>
+      <c r="B632" s="12" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C632" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D632" s="12">
+        <v>2.0242932E7</v>
+      </c>
+      <c r="E632" s="12" t="s">
+        <v>1377</v>
+      </c>
+      <c r="F632" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G632" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H632" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I632" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J632" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K632" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L632" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M632" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="13">
+        <v>45557.085292800926</v>
+      </c>
+      <c r="B633" s="14" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C633" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D633" s="14">
+        <v>2.0215212E7</v>
+      </c>
+      <c r="E633" s="14" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F633" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G633" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H633" s="14">
+        <v>2012.0</v>
+      </c>
+      <c r="I633" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J633" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K633" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L633" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N633" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="11">
+        <v>45557.098455775464</v>
+      </c>
+      <c r="B634" s="12" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C634" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D634" s="12">
+        <v>2.0243241E7</v>
+      </c>
+      <c r="E634" s="12" t="s">
+        <v>1381</v>
+      </c>
+      <c r="F634" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G634" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H634" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I634" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J634" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K634" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L634" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N634" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="13">
+        <v>45557.099584421296</v>
+      </c>
+      <c r="B635" s="14" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C635" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D635" s="14">
+        <v>2.0233605E7</v>
+      </c>
+      <c r="E635" s="14" t="s">
+        <v>1383</v>
+      </c>
+      <c r="F635" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G635" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H635" s="14">
+        <v>2012.0</v>
+      </c>
+      <c r="I635" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J635" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K635" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L635" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N635" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="11">
+        <v>45557.111392499995</v>
+      </c>
+      <c r="B636" s="12" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C636" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D636" s="12">
+        <v>2.0243913E7</v>
+      </c>
+      <c r="E636" s="12" t="s">
+        <v>794</v>
+      </c>
+      <c r="F636" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G636" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H636" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I636" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J636" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K636" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L636" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M636" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="13">
+        <v>45557.15994217593</v>
+      </c>
+      <c r="B637" s="14" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C637" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D637" s="14">
+        <v>2.0202418E7</v>
+      </c>
+      <c r="E637" s="14" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F637" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G637" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H637" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I637" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J637" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K637" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L637" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M637" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="11">
+        <v>45557.21640777778</v>
+      </c>
+      <c r="B638" s="12" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C638" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D638" s="12">
+        <v>2.0202106E7</v>
+      </c>
+      <c r="E638" s="12" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F638" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G638" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H638" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I638" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J638" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K638" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L638" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N638" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="13">
+        <v>45557.218545254625</v>
+      </c>
+      <c r="B639" s="14" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C639" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="D639" s="14">
+        <v>2.0241083E7</v>
+      </c>
+      <c r="E639" s="14" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F639" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G639" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H639" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I639" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J639" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K639" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L639" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N639" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="17">
+        <v>45557.30963042824</v>
+      </c>
+      <c r="B640" s="18" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C640" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="D640" s="18">
+        <v>2.0231712E7</v>
+      </c>
+      <c r="E640" s="18" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F640" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G640" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H640" s="18">
+        <v>2017.0</v>
+      </c>
+      <c r="I640" s="18">
+        <v>2018.0</v>
+      </c>
+      <c r="J640" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K640" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="L640" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M640" s="18" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz240909_tmp.xlsx
+++ b/R/data/quiz240909_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5766" uniqueCount="1393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5964" uniqueCount="1437">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4190,6 +4190,138 @@
   </si>
   <si>
     <t>백민제</t>
+  </si>
+  <si>
+    <t>smsong1036@gmail.com</t>
+  </si>
+  <si>
+    <t>송승민</t>
+  </si>
+  <si>
+    <t>eunsoljj12@gmail.com</t>
+  </si>
+  <si>
+    <t>권은솔</t>
+  </si>
+  <si>
+    <t>soyeon2025@naver.com</t>
+  </si>
+  <si>
+    <t>haeyaxx@naver.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">경제학과 </t>
+  </si>
+  <si>
+    <t>차지혜</t>
+  </si>
+  <si>
+    <t>jcy1569@naver.com</t>
+  </si>
+  <si>
+    <t>조찬영</t>
+  </si>
+  <si>
+    <t>hanseoyun392@gmail.com</t>
+  </si>
+  <si>
+    <t>한서윤</t>
+  </si>
+  <si>
+    <t>wlgus4770752@naver.com</t>
+  </si>
+  <si>
+    <t>의예과</t>
+  </si>
+  <si>
+    <t>김지현</t>
+  </si>
+  <si>
+    <t>qotnqls1126@naver.com</t>
+  </si>
+  <si>
+    <t>배수빈</t>
+  </si>
+  <si>
+    <t>cth041103@naver.com</t>
+  </si>
+  <si>
+    <t>최태희</t>
+  </si>
+  <si>
+    <t>youmin43@naver.com</t>
+  </si>
+  <si>
+    <t>박유민</t>
+  </si>
+  <si>
+    <t>lsarang1311@gmail.com</t>
+  </si>
+  <si>
+    <t>이사랑</t>
+  </si>
+  <si>
+    <t>yoonsun91124@gmail.com</t>
+  </si>
+  <si>
+    <t>박윤선</t>
+  </si>
+  <si>
+    <t>cgb01045647472@gmail.com</t>
+  </si>
+  <si>
+    <t>최기백</t>
+  </si>
+  <si>
+    <t>mjsong4130@gmail.com</t>
+  </si>
+  <si>
+    <t>인공지능융합학부 ai로봇융합전공</t>
+  </si>
+  <si>
+    <t>송민재</t>
+  </si>
+  <si>
+    <t>kangdmscks@gmail.com</t>
+  </si>
+  <si>
+    <t>강은찬</t>
+  </si>
+  <si>
+    <t>dong45657@gmail.com</t>
+  </si>
+  <si>
+    <t>채동엽</t>
+  </si>
+  <si>
+    <t>whrhdwn2003@gmail.com</t>
+  </si>
+  <si>
+    <t>조은서</t>
+  </si>
+  <si>
+    <t>ghskfen1215@naver.com</t>
+  </si>
+  <si>
+    <t>기정윤</t>
+  </si>
+  <si>
+    <t>yohihong@gmail.com</t>
+  </si>
+  <si>
+    <t>민홍기</t>
+  </si>
+  <si>
+    <t>dahyeony410@gmail.com</t>
+  </si>
+  <si>
+    <t>윤다현</t>
+  </si>
+  <si>
+    <t>lindenjw12@gmail.com</t>
+  </si>
+  <si>
+    <t>이지우</t>
   </si>
 </sst>
 </file>
@@ -4496,7 +4628,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N640" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N662" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -30941,43 +31073,945 @@
       </c>
     </row>
     <row r="640">
-      <c r="A640" s="17">
+      <c r="A640" s="11">
         <v>45557.30963042824</v>
       </c>
-      <c r="B640" s="18" t="s">
+      <c r="B640" s="12" t="s">
         <v>1391</v>
       </c>
-      <c r="C640" s="18" t="s">
+      <c r="C640" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="D640" s="18">
+      <c r="D640" s="12">
         <v>2.0231712E7</v>
       </c>
-      <c r="E640" s="18" t="s">
+      <c r="E640" s="12" t="s">
         <v>1392</v>
       </c>
-      <c r="F640" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G640" s="18" t="s">
+      <c r="F640" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G640" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H640" s="18">
-        <v>2017.0</v>
-      </c>
-      <c r="I640" s="18">
+      <c r="H640" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I640" s="12">
         <v>2018.0</v>
       </c>
-      <c r="J640" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K640" s="18" t="s">
+      <c r="J640" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K640" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="L640" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M640" s="18" t="s">
+      <c r="L640" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M640" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="13">
+        <v>45557.32728972222</v>
+      </c>
+      <c r="B641" s="14" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C641" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="D641" s="14">
+        <v>2.0243624E7</v>
+      </c>
+      <c r="E641" s="14" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F641" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G641" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H641" s="14">
+        <v>2022.0</v>
+      </c>
+      <c r="I641" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J641" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K641" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L641" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M641" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="11">
+        <v>45557.32896347222</v>
+      </c>
+      <c r="B642" s="12" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C642" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D642" s="12">
+        <v>2.0245113E7</v>
+      </c>
+      <c r="E642" s="12" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F642" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G642" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H642" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I642" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J642" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K642" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L642" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N642" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" s="13">
+        <v>45557.340360636575</v>
+      </c>
+      <c r="B643" s="14" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C643" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D643" s="14">
+        <v>2.0246221E7</v>
+      </c>
+      <c r="E643" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="F643" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G643" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H643" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I643" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J643" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K643" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L643" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N643" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" s="11">
+        <v>45557.34521327546</v>
+      </c>
+      <c r="B644" s="12" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C644" s="12" t="s">
+        <v>1399</v>
+      </c>
+      <c r="D644" s="12">
+        <v>2.0212846E7</v>
+      </c>
+      <c r="E644" s="12" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F644" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G644" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H644" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I644" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J644" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K644" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L644" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N644" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" s="13">
+        <v>45557.39692569444</v>
+      </c>
+      <c r="B645" s="14" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C645" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D645" s="14">
+        <v>2.0161632E7</v>
+      </c>
+      <c r="E645" s="14" t="s">
+        <v>1402</v>
+      </c>
+      <c r="F645" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G645" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H645" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I645" s="14">
+        <v>2019.0</v>
+      </c>
+      <c r="J645" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="K645" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L645" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M645" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" s="11">
+        <v>45557.43445144676</v>
+      </c>
+      <c r="B646" s="12" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C646" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D646" s="12">
+        <v>2.0243964E7</v>
+      </c>
+      <c r="E646" s="12" t="s">
+        <v>1404</v>
+      </c>
+      <c r="F646" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G646" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H646" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I646" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J646" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K646" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L646" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N646" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" s="13">
+        <v>45557.45853517361</v>
+      </c>
+      <c r="B647" s="14" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C647" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D647" s="14">
+        <v>2.0242753E7</v>
+      </c>
+      <c r="E647" s="14" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F647" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G647" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H647" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I647" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J647" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K647" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L647" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N647" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" s="11">
+        <v>45557.46887972222</v>
+      </c>
+      <c r="B648" s="12" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C648" s="12" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D648" s="12">
+        <v>2.0236121E7</v>
+      </c>
+      <c r="E648" s="12" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F648" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G648" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H648" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I648" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J648" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K648" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L648" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M648" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" s="13">
+        <v>45557.492755370375</v>
+      </c>
+      <c r="B649" s="14" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C649" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D649" s="14">
+        <v>2.020382E7</v>
+      </c>
+      <c r="E649" s="14" t="s">
+        <v>1409</v>
+      </c>
+      <c r="F649" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G649" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H649" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I649" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J649" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K649" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L649" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N649" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" s="11">
+        <v>45557.52266993056</v>
+      </c>
+      <c r="B650" s="12" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C650" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D650" s="12">
+        <v>2.0233544E7</v>
+      </c>
+      <c r="E650" s="12" t="s">
+        <v>1411</v>
+      </c>
+      <c r="F650" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G650" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H650" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I650" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J650" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K650" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L650" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M650" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" s="13">
+        <v>45557.5243096412</v>
+      </c>
+      <c r="B651" s="14" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C651" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D651" s="14">
+        <v>2.0246728E7</v>
+      </c>
+      <c r="E651" s="14" t="s">
+        <v>1413</v>
+      </c>
+      <c r="F651" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G651" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H651" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I651" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J651" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K651" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L651" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N651" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" s="11">
+        <v>45557.52837476852</v>
+      </c>
+      <c r="B652" s="12" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C652" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D652" s="12">
+        <v>2.0242998E7</v>
+      </c>
+      <c r="E652" s="12" t="s">
+        <v>1415</v>
+      </c>
+      <c r="F652" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G652" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H652" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I652" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J652" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K652" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L652" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M652" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" s="13">
+        <v>45557.53187723379</v>
+      </c>
+      <c r="B653" s="14" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C653" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D653" s="14">
+        <v>2.0245167E7</v>
+      </c>
+      <c r="E653" s="14" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F653" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G653" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H653" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I653" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J653" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K653" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L653" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N653" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" s="11">
+        <v>45557.533887673606</v>
+      </c>
+      <c r="B654" s="12" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C654" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D654" s="12">
+        <v>2.0193003E7</v>
+      </c>
+      <c r="E654" s="12" t="s">
+        <v>1419</v>
+      </c>
+      <c r="F654" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G654" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H654" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I654" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J654" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K654" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L654" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N654" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" s="13">
+        <v>45557.53733141204</v>
+      </c>
+      <c r="B655" s="14" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C655" s="14" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D655" s="14">
+        <v>2.0236736E7</v>
+      </c>
+      <c r="E655" s="14" t="s">
+        <v>1422</v>
+      </c>
+      <c r="F655" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G655" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H655" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I655" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J655" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K655" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L655" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N655" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" s="11">
+        <v>45557.53889053241</v>
+      </c>
+      <c r="B656" s="12" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C656" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D656" s="12">
+        <v>2.0246904E7</v>
+      </c>
+      <c r="E656" s="12" t="s">
+        <v>1424</v>
+      </c>
+      <c r="F656" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G656" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H656" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I656" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J656" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K656" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L656" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M656" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" s="13">
+        <v>45557.54333868055</v>
+      </c>
+      <c r="B657" s="14" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C657" s="14" t="s">
+        <v>601</v>
+      </c>
+      <c r="D657" s="14">
+        <v>2.0193429E7</v>
+      </c>
+      <c r="E657" s="14" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F657" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G657" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H657" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I657" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J657" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K657" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L657" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N657" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" s="11">
+        <v>45557.54961815973</v>
+      </c>
+      <c r="B658" s="12" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C658" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D658" s="12">
+        <v>2.023275E7</v>
+      </c>
+      <c r="E658" s="12" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F658" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G658" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H658" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I658" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J658" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K658" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L658" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N658" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" s="13">
+        <v>45557.553863506946</v>
+      </c>
+      <c r="B659" s="14" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C659" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D659" s="14">
+        <v>2.0236705E7</v>
+      </c>
+      <c r="E659" s="14" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F659" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G659" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H659" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I659" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J659" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K659" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L659" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N659" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" s="11">
+        <v>45557.55702724537</v>
+      </c>
+      <c r="B660" s="12" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C660" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D660" s="12">
+        <v>2.0245161E7</v>
+      </c>
+      <c r="E660" s="12" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F660" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G660" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H660" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I660" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J660" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K660" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L660" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N660" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" s="13">
+        <v>45557.55779141204</v>
+      </c>
+      <c r="B661" s="14" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C661" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D661" s="14">
+        <v>2.0233415E7</v>
+      </c>
+      <c r="E661" s="14" t="s">
+        <v>1434</v>
+      </c>
+      <c r="F661" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G661" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H661" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I661" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J661" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K661" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L661" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M661" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" s="17">
+        <v>45557.56544539351</v>
+      </c>
+      <c r="B662" s="18" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C662" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D662" s="18">
+        <v>2.0233016E7</v>
+      </c>
+      <c r="E662" s="18" t="s">
+        <v>1436</v>
+      </c>
+      <c r="F662" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G662" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H662" s="18">
+        <v>2017.0</v>
+      </c>
+      <c r="I662" s="18">
+        <v>2020.0</v>
+      </c>
+      <c r="J662" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K662" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L662" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M662" s="18" t="s">
         <v>22</v>
       </c>
     </row>

--- a/R/data/quiz240909_tmp.xlsx
+++ b/R/data/quiz240909_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5964" uniqueCount="1437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6189" uniqueCount="1484">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4322,6 +4322,147 @@
   </si>
   <si>
     <t>이지우</t>
+  </si>
+  <si>
+    <t>u2fjfjrjdjjr2@naver.com</t>
+  </si>
+  <si>
+    <t>기소연</t>
+  </si>
+  <si>
+    <t>uj5343@gmail.com</t>
+  </si>
+  <si>
+    <t>장우찬</t>
+  </si>
+  <si>
+    <t>in3019@gmail.com</t>
+  </si>
+  <si>
+    <t>이승윤</t>
+  </si>
+  <si>
+    <t>lcw1309@gmail.com</t>
+  </si>
+  <si>
+    <t>이채원</t>
+  </si>
+  <si>
+    <t>oh4559@gmail.com</t>
+  </si>
+  <si>
+    <t>권오현</t>
+  </si>
+  <si>
+    <t>ij9584195@gmail.com</t>
+  </si>
+  <si>
+    <t>050624alex@gmail.com</t>
+  </si>
+  <si>
+    <t>이승현</t>
+  </si>
+  <si>
+    <t>hanca0607@naver.com</t>
+  </si>
+  <si>
+    <t>한채아</t>
+  </si>
+  <si>
+    <t>jwtp724@naver.com</t>
+  </si>
+  <si>
+    <t>박이선</t>
+  </si>
+  <si>
+    <t>hyeonyonga@gmail.com</t>
+  </si>
+  <si>
+    <t>안현용</t>
+  </si>
+  <si>
+    <t>rhkddyd234@naver.com</t>
+  </si>
+  <si>
+    <t>이광용</t>
+  </si>
+  <si>
+    <t>peony.chung04@gmail.com</t>
+  </si>
+  <si>
+    <t>정수영</t>
+  </si>
+  <si>
+    <t>jongjongsook@naver.com</t>
+  </si>
+  <si>
+    <t>김종숙</t>
+  </si>
+  <si>
+    <t>roytoy151827@gmail.com</t>
+  </si>
+  <si>
+    <t>김용한</t>
+  </si>
+  <si>
+    <t>jisung050407@naver.com</t>
+  </si>
+  <si>
+    <t>김지성</t>
+  </si>
+  <si>
+    <t>jiyewon5555@gmail.com</t>
+  </si>
+  <si>
+    <t>지예원</t>
+  </si>
+  <si>
+    <t>minuhwang16@gmail.com</t>
+  </si>
+  <si>
+    <t>황민우</t>
+  </si>
+  <si>
+    <t>hyj13223@naver.com</t>
+  </si>
+  <si>
+    <t>이현진</t>
+  </si>
+  <si>
+    <t>csqwe2@naver.com</t>
+  </si>
+  <si>
+    <t>장재호</t>
+  </si>
+  <si>
+    <t>uek2002@naver.com</t>
+  </si>
+  <si>
+    <t>김기조</t>
+  </si>
+  <si>
+    <t>oo3198@naver.com</t>
+  </si>
+  <si>
+    <t>심현진</t>
+  </si>
+  <si>
+    <t>tlqpfldkghfk@gmail.com</t>
+  </si>
+  <si>
+    <t>tmddl3538@naver.com</t>
+  </si>
+  <si>
+    <t>hshljy7@gmail.com</t>
+  </si>
+  <si>
+    <t>황성훈</t>
+  </si>
+  <si>
+    <t>jign1106@naver.com</t>
+  </si>
+  <si>
+    <t>지은총</t>
   </si>
 </sst>
 </file>
@@ -4485,10 +4626,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -4496,13 +4637,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -4628,7 +4769,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N662" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N687" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -31975,44 +32116,1069 @@
       </c>
     </row>
     <row r="662">
-      <c r="A662" s="17">
+      <c r="A662" s="11">
         <v>45557.56544539351</v>
       </c>
-      <c r="B662" s="18" t="s">
+      <c r="B662" s="12" t="s">
         <v>1435</v>
       </c>
-      <c r="C662" s="18" t="s">
+      <c r="C662" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="D662" s="18">
+      <c r="D662" s="12">
         <v>2.0233016E7</v>
       </c>
-      <c r="E662" s="18" t="s">
+      <c r="E662" s="12" t="s">
         <v>1436</v>
       </c>
-      <c r="F662" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G662" s="18" t="s">
+      <c r="F662" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G662" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="H662" s="18">
-        <v>2017.0</v>
-      </c>
-      <c r="I662" s="18">
-        <v>2020.0</v>
-      </c>
-      <c r="J662" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K662" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L662" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M662" s="18" t="s">
-        <v>22</v>
+      <c r="H662" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I662" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J662" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K662" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L662" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M662" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" s="13">
+        <v>45557.572536875</v>
+      </c>
+      <c r="B663" s="14" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C663" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="D663" s="14">
+        <v>2.0232502E7</v>
+      </c>
+      <c r="E663" s="14" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F663" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G663" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H663" s="14">
+        <v>2012.0</v>
+      </c>
+      <c r="I663" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J663" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K663" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L663" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N663" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" s="11">
+        <v>45557.57338321759</v>
+      </c>
+      <c r="B664" s="12" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C664" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D664" s="12">
+        <v>2.0243973E7</v>
+      </c>
+      <c r="E664" s="12" t="s">
+        <v>1440</v>
+      </c>
+      <c r="F664" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G664" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H664" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I664" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J664" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K664" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L664" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M664" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" s="13">
+        <v>45557.57838009259</v>
+      </c>
+      <c r="B665" s="14" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C665" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D665" s="14">
+        <v>2.0192229E7</v>
+      </c>
+      <c r="E665" s="14" t="s">
+        <v>1442</v>
+      </c>
+      <c r="F665" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G665" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="H665" s="14">
+        <v>2022.0</v>
+      </c>
+      <c r="I665" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J665" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K665" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L665" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M665" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" s="11">
+        <v>45557.58350349537</v>
+      </c>
+      <c r="B666" s="12" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C666" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D666" s="12">
+        <v>2.0243423E7</v>
+      </c>
+      <c r="E666" s="12" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F666" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G666" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H666" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I666" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J666" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K666" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L666" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N666" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" s="13">
+        <v>45557.58745898148</v>
+      </c>
+      <c r="B667" s="14" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C667" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="D667" s="14">
+        <v>2.0215108E7</v>
+      </c>
+      <c r="E667" s="14" t="s">
+        <v>1446</v>
+      </c>
+      <c r="F667" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G667" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H667" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I667" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J667" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K667" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L667" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M667" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" s="11">
+        <v>45557.593413379625</v>
+      </c>
+      <c r="B668" s="12" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C668" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="D668" s="12">
+        <v>2.024664E7</v>
+      </c>
+      <c r="E668" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="F668" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G668" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H668" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I668" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J668" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K668" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L668" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M668" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" s="13">
+        <v>45557.596457314816</v>
+      </c>
+      <c r="B669" s="14" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C669" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D669" s="14">
+        <v>2.0245224E7</v>
+      </c>
+      <c r="E669" s="14" t="s">
+        <v>1449</v>
+      </c>
+      <c r="F669" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G669" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H669" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I669" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J669" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K669" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L669" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N669" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" s="11">
+        <v>45557.60487253472</v>
+      </c>
+      <c r="B670" s="12" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C670" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D670" s="12">
+        <v>2.0202365E7</v>
+      </c>
+      <c r="E670" s="12" t="s">
+        <v>1451</v>
+      </c>
+      <c r="F670" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G670" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H670" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I670" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J670" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K670" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L670" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M670" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" s="13">
+        <v>45557.619443055555</v>
+      </c>
+      <c r="B671" s="14" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C671" s="14" t="s">
+        <v>937</v>
+      </c>
+      <c r="D671" s="14">
+        <v>2.0206504E7</v>
+      </c>
+      <c r="E671" s="14" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F671" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G671" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H671" s="14">
+        <v>2012.0</v>
+      </c>
+      <c r="I671" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J671" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K671" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L671" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N671" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" s="11">
+        <v>45557.632974224536</v>
+      </c>
+      <c r="B672" s="12" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C672" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D672" s="12">
+        <v>2.0243415E7</v>
+      </c>
+      <c r="E672" s="12" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F672" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G672" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H672" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I672" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J672" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K672" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L672" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M672" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" s="13">
+        <v>45557.64001898148</v>
+      </c>
+      <c r="B673" s="14" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C673" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D673" s="14">
+        <v>2.019342E7</v>
+      </c>
+      <c r="E673" s="14" t="s">
+        <v>1457</v>
+      </c>
+      <c r="F673" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G673" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H673" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I673" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J673" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K673" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L673" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N673" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" s="11">
+        <v>45557.641968842596</v>
+      </c>
+      <c r="B674" s="12" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C674" s="12" t="s">
+        <v>568</v>
+      </c>
+      <c r="D674" s="12">
+        <v>2.0241728E7</v>
+      </c>
+      <c r="E674" s="12" t="s">
+        <v>1459</v>
+      </c>
+      <c r="F674" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G674" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H674" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I674" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J674" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K674" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L674" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M674" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" s="13">
+        <v>45557.65395947917</v>
+      </c>
+      <c r="B675" s="14" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C675" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D675" s="14">
+        <v>2.0243613E7</v>
+      </c>
+      <c r="E675" s="14" t="s">
+        <v>1461</v>
+      </c>
+      <c r="F675" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G675" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H675" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I675" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J675" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K675" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L675" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N675" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" s="11">
+        <v>45557.65480054398</v>
+      </c>
+      <c r="B676" s="12" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C676" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D676" s="12">
+        <v>2.0202927E7</v>
+      </c>
+      <c r="E676" s="12" t="s">
+        <v>1463</v>
+      </c>
+      <c r="F676" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G676" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H676" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I676" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J676" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K676" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L676" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M676" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" s="13">
+        <v>45557.65495149305</v>
+      </c>
+      <c r="B677" s="14" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C677" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D677" s="14">
+        <v>2.0242212E7</v>
+      </c>
+      <c r="E677" s="14" t="s">
+        <v>1465</v>
+      </c>
+      <c r="F677" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G677" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H677" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I677" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J677" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K677" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L677" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N677" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" s="11">
+        <v>45557.66338863426</v>
+      </c>
+      <c r="B678" s="12" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C678" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="D678" s="12">
+        <v>2.0202641E7</v>
+      </c>
+      <c r="E678" s="12" t="s">
+        <v>1467</v>
+      </c>
+      <c r="F678" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G678" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H678" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I678" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J678" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K678" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L678" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M678" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" s="13">
+        <v>45557.66779383102</v>
+      </c>
+      <c r="B679" s="14" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C679" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D679" s="14">
+        <v>2.0243967E7</v>
+      </c>
+      <c r="E679" s="14" t="s">
+        <v>1469</v>
+      </c>
+      <c r="F679" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G679" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H679" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I679" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J679" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K679" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L679" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M679" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" s="11">
+        <v>45557.68728987269</v>
+      </c>
+      <c r="B680" s="12" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C680" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="D680" s="12">
+        <v>2.0212432E7</v>
+      </c>
+      <c r="E680" s="12" t="s">
+        <v>1471</v>
+      </c>
+      <c r="F680" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G680" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H680" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I680" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J680" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K680" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L680" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M680" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" s="13">
+        <v>45557.68750436342</v>
+      </c>
+      <c r="B681" s="14" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C681" s="14" t="s">
+        <v>360</v>
+      </c>
+      <c r="D681" s="14">
+        <v>2.0196638E7</v>
+      </c>
+      <c r="E681" s="14" t="s">
+        <v>1473</v>
+      </c>
+      <c r="F681" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G681" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H681" s="14">
+        <v>2012.0</v>
+      </c>
+      <c r="I681" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J681" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K681" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L681" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N681" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" s="11">
+        <v>45557.712510868056</v>
+      </c>
+      <c r="B682" s="12" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C682" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="D682" s="12">
+        <v>2.0233908E7</v>
+      </c>
+      <c r="E682" s="12" t="s">
+        <v>1475</v>
+      </c>
+      <c r="F682" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G682" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H682" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I682" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J682" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K682" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L682" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M682" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" s="13">
+        <v>45557.72804185185</v>
+      </c>
+      <c r="B683" s="14" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C683" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D683" s="14">
+        <v>2.0245196E7</v>
+      </c>
+      <c r="E683" s="14" t="s">
+        <v>1477</v>
+      </c>
+      <c r="F683" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G683" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H683" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I683" s="14">
+        <v>2019.0</v>
+      </c>
+      <c r="J683" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K683" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L683" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N683" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" s="11">
+        <v>45557.72812076389</v>
+      </c>
+      <c r="B684" s="12" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C684" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D684" s="12">
+        <v>2.0202406E7</v>
+      </c>
+      <c r="E684" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="F684" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G684" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H684" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I684" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J684" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K684" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L684" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M684" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" s="13">
+        <v>45557.73262458333</v>
+      </c>
+      <c r="B685" s="14" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C685" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="D685" s="14">
+        <v>2.0227037E7</v>
+      </c>
+      <c r="E685" s="14" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F685" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G685" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H685" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I685" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J685" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K685" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L685" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M685" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" s="11">
+        <v>45557.73396939815</v>
+      </c>
+      <c r="B686" s="12" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C686" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D686" s="12">
+        <v>2.0193017E7</v>
+      </c>
+      <c r="E686" s="12" t="s">
+        <v>1481</v>
+      </c>
+      <c r="F686" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G686" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H686" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I686" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J686" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K686" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L686" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M686" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" s="17">
+        <v>45557.73981638889</v>
+      </c>
+      <c r="B687" s="18" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C687" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D687" s="18">
+        <v>2.0246289E7</v>
+      </c>
+      <c r="E687" s="18" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F687" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G687" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="H687" s="18">
+        <v>2017.0</v>
+      </c>
+      <c r="I687" s="18">
+        <v>2020.0</v>
+      </c>
+      <c r="J687" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K687" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="L687" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M687" s="18" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/R/data/quiz240909_tmp.xlsx
+++ b/R/data/quiz240909_tmp.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6189" uniqueCount="1484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6657" uniqueCount="1581">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -4463,6 +4463,297 @@
   </si>
   <si>
     <t>지은총</t>
+  </si>
+  <si>
+    <t>ysuyes@gmail.com</t>
+  </si>
+  <si>
+    <t>윤승욱</t>
+  </si>
+  <si>
+    <t>opkl52@naver.com</t>
+  </si>
+  <si>
+    <t>유승미</t>
+  </si>
+  <si>
+    <t>applehanul@naver.com</t>
+  </si>
+  <si>
+    <t>신하늘</t>
+  </si>
+  <si>
+    <t>syuniw26@gmail.com</t>
+  </si>
+  <si>
+    <t>이서윤</t>
+  </si>
+  <si>
+    <t>iiiiii3314@naver.com</t>
+  </si>
+  <si>
+    <t>엄수빈</t>
+  </si>
+  <si>
+    <t>kimw0707@naver.com</t>
+  </si>
+  <si>
+    <t>김원영</t>
+  </si>
+  <si>
+    <t>dldpwls5245@naver.com</t>
+  </si>
+  <si>
+    <t>이예진</t>
+  </si>
+  <si>
+    <t>h20202564@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>이호연</t>
+  </si>
+  <si>
+    <t>wjswlals789@naver.com</t>
+  </si>
+  <si>
+    <t>전지민</t>
+  </si>
+  <si>
+    <t>merong1730@naver.com</t>
+  </si>
+  <si>
+    <t>김성진</t>
+  </si>
+  <si>
+    <t>haeun_ob@naver.com</t>
+  </si>
+  <si>
+    <t>박하은</t>
+  </si>
+  <si>
+    <t>soeunjeong0816@naver.com</t>
+  </si>
+  <si>
+    <t>정소은</t>
+  </si>
+  <si>
+    <t>seoeun2003@naver.com</t>
+  </si>
+  <si>
+    <t>최서은</t>
+  </si>
+  <si>
+    <t>marcy0628@naver.com</t>
+  </si>
+  <si>
+    <t>글로벌비즈니스</t>
+  </si>
+  <si>
+    <t>송지우</t>
+  </si>
+  <si>
+    <t>h20202519@glab.hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>남현아</t>
+  </si>
+  <si>
+    <t>moon050123@naver.com</t>
+  </si>
+  <si>
+    <t>문서원</t>
+  </si>
+  <si>
+    <t>eoqkr4821@naver.com</t>
+  </si>
+  <si>
+    <t>kt433@naver.com</t>
+  </si>
+  <si>
+    <t>주혜린</t>
+  </si>
+  <si>
+    <t>sujdiamond@gmail.com</t>
+  </si>
+  <si>
+    <t>심유진</t>
+  </si>
+  <si>
+    <t>wkdgotqlc@gmail.com</t>
+  </si>
+  <si>
+    <t>장햇빛</t>
+  </si>
+  <si>
+    <t>dojun0707@naver.com</t>
+  </si>
+  <si>
+    <t>차도준</t>
+  </si>
+  <si>
+    <t>joyang4777@gmail.com</t>
+  </si>
+  <si>
+    <t>함현아</t>
+  </si>
+  <si>
+    <t>jione0831@naver.com</t>
+  </si>
+  <si>
+    <t>윤지원</t>
+  </si>
+  <si>
+    <t>jm050307@naver.com</t>
+  </si>
+  <si>
+    <t>kusahana8047@gmail.com</t>
+  </si>
+  <si>
+    <t>유현우</t>
+  </si>
+  <si>
+    <t>azxsk0187@gmail.com</t>
+  </si>
+  <si>
+    <t>한윤서</t>
+  </si>
+  <si>
+    <t>mani4262421@naver.com</t>
+  </si>
+  <si>
+    <t>hlu20242513@gmail.com</t>
+  </si>
+  <si>
+    <t>김예준</t>
+  </si>
+  <si>
+    <t>soomin0282@gmail.com</t>
+  </si>
+  <si>
+    <t>sihyune1104@gmail.com</t>
+  </si>
+  <si>
+    <t>안시현</t>
+  </si>
+  <si>
+    <t>choyunjae2153@gmail.com</t>
+  </si>
+  <si>
+    <t>조윤재</t>
+  </si>
+  <si>
+    <t>tkddnt0608@gmail.com</t>
+  </si>
+  <si>
+    <t>유상욱</t>
+  </si>
+  <si>
+    <t>skaskgus@gmail.com</t>
+  </si>
+  <si>
+    <t>남나현</t>
+  </si>
+  <si>
+    <t>yule240110@gmail.com</t>
+  </si>
+  <si>
+    <t>조율</t>
+  </si>
+  <si>
+    <t>kmu2916@naver.com</t>
+  </si>
+  <si>
+    <t>강민욱</t>
+  </si>
+  <si>
+    <t>wpghks1145@gmail.com</t>
+  </si>
+  <si>
+    <t>박제환</t>
+  </si>
+  <si>
+    <t>p1aymaker9926@gmail.com</t>
+  </si>
+  <si>
+    <t>김대환</t>
+  </si>
+  <si>
+    <t>xhddlfqnxkr@naver.com</t>
+  </si>
+  <si>
+    <t>김보경</t>
+  </si>
+  <si>
+    <t>yeel6945@naver.com</t>
+  </si>
+  <si>
+    <t>dudlrls@kakao.com</t>
+  </si>
+  <si>
+    <t>안여름</t>
+  </si>
+  <si>
+    <t>rkdwndms112@naver.com</t>
+  </si>
+  <si>
+    <t>강주은</t>
+  </si>
+  <si>
+    <t>20217096@hallym.ac.kr</t>
+  </si>
+  <si>
+    <t>dkddkd8480@gmail.com</t>
+  </si>
+  <si>
+    <t>유용재</t>
+  </si>
+  <si>
+    <t>xluwq264@gmail.com</t>
+  </si>
+  <si>
+    <t>주시은</t>
+  </si>
+  <si>
+    <t>lgc01040089921@gmail.com</t>
+  </si>
+  <si>
+    <t>이감찬</t>
+  </si>
+  <si>
+    <t>yeona0926@gmail.com</t>
+  </si>
+  <si>
+    <t>강연아</t>
+  </si>
+  <si>
+    <t>koreavjr@naver.com</t>
+  </si>
+  <si>
+    <t>박지성</t>
+  </si>
+  <si>
+    <t>whdudgus1013@gmail.com</t>
+  </si>
+  <si>
+    <t>조영현</t>
+  </si>
+  <si>
+    <t>dream03064@gmail.com</t>
+  </si>
+  <si>
+    <t>오채연</t>
+  </si>
+  <si>
+    <t>shimyuna14@naver.com</t>
+  </si>
+  <si>
+    <t>심유나</t>
+  </si>
+  <si>
+    <t>nari040812@naver.com</t>
+  </si>
+  <si>
+    <t>이나리</t>
   </si>
 </sst>
 </file>
@@ -4769,7 +5060,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N687" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:N739" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="14">
     <tableColumn name="타임스탬프" id="1"/>
     <tableColumn name="이메일 주소" id="2"/>
@@ -33141,44 +33432,2176 @@
       </c>
     </row>
     <row r="687">
-      <c r="A687" s="17">
+      <c r="A687" s="13">
         <v>45557.73981638889</v>
       </c>
-      <c r="B687" s="18" t="s">
+      <c r="B687" s="14" t="s">
         <v>1482</v>
       </c>
-      <c r="C687" s="18" t="s">
+      <c r="C687" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="D687" s="18">
+      <c r="D687" s="14">
         <v>2.0246289E7</v>
       </c>
-      <c r="E687" s="18" t="s">
+      <c r="E687" s="14" t="s">
         <v>1483</v>
       </c>
-      <c r="F687" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G687" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="H687" s="18">
-        <v>2017.0</v>
-      </c>
-      <c r="I687" s="18">
-        <v>2020.0</v>
-      </c>
-      <c r="J687" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="K687" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="L687" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="M687" s="18" t="s">
+      <c r="F687" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G687" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H687" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I687" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J687" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K687" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L687" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M687" s="14" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" s="11">
+        <v>45557.746050381946</v>
+      </c>
+      <c r="B688" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C688" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D688" s="12">
+        <v>2.0182519E7</v>
+      </c>
+      <c r="E688" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="F688" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G688" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H688" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I688" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J688" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K688" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L688" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M688" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" s="13">
+        <v>45557.74802450232</v>
+      </c>
+      <c r="B689" s="14" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C689" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="D689" s="14">
+        <v>2.0242992E7</v>
+      </c>
+      <c r="E689" s="14" t="s">
+        <v>1485</v>
+      </c>
+      <c r="F689" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G689" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H689" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I689" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J689" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K689" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L689" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M689" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" s="11">
+        <v>45557.75447177084</v>
+      </c>
+      <c r="B690" s="12" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C690" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D690" s="12">
+        <v>2.0202994E7</v>
+      </c>
+      <c r="E690" s="12" t="s">
+        <v>1487</v>
+      </c>
+      <c r="F690" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G690" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H690" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I690" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J690" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K690" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L690" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M690" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" s="13">
+        <v>45557.756462731486</v>
+      </c>
+      <c r="B691" s="14" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C691" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D691" s="14">
+        <v>2.0233412E7</v>
+      </c>
+      <c r="E691" s="14" t="s">
+        <v>1489</v>
+      </c>
+      <c r="F691" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G691" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H691" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I691" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J691" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K691" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L691" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N691" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" s="11">
+        <v>45557.760889467594</v>
+      </c>
+      <c r="B692" s="12" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C692" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D692" s="12">
+        <v>2.0243726E7</v>
+      </c>
+      <c r="E692" s="12" t="s">
+        <v>1491</v>
+      </c>
+      <c r="F692" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G692" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H692" s="12">
+        <v>2022.0</v>
+      </c>
+      <c r="I692" s="12">
+        <v>2019.0</v>
+      </c>
+      <c r="J692" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K692" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L692" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M692" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" s="13">
+        <v>45557.76737721065</v>
+      </c>
+      <c r="B693" s="14" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C693" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D693" s="14">
+        <v>2.0242986E7</v>
+      </c>
+      <c r="E693" s="14" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F693" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G693" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H693" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I693" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J693" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K693" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L693" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N693" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" s="11">
+        <v>45557.7756962037</v>
+      </c>
+      <c r="B694" s="12" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C694" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D694" s="12">
+        <v>2.0245138E7</v>
+      </c>
+      <c r="E694" s="12" t="s">
+        <v>1495</v>
+      </c>
+      <c r="F694" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G694" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H694" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I694" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J694" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K694" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L694" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M694" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" s="13">
+        <v>45557.77594741898</v>
+      </c>
+      <c r="B695" s="14" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C695" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D695" s="14">
+        <v>2.0182747E7</v>
+      </c>
+      <c r="E695" s="14" t="s">
+        <v>1497</v>
+      </c>
+      <c r="F695" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G695" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H695" s="14">
+        <v>2012.0</v>
+      </c>
+      <c r="I695" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J695" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K695" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L695" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M695" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" s="11">
+        <v>45557.777838877315</v>
+      </c>
+      <c r="B696" s="12" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C696" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D696" s="12">
+        <v>2.0202564E7</v>
+      </c>
+      <c r="E696" s="12" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F696" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G696" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H696" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I696" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J696" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K696" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L696" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M696" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" s="13">
+        <v>45557.78709229166</v>
+      </c>
+      <c r="B697" s="14" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C697" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D697" s="14">
+        <v>2.0213731E7</v>
+      </c>
+      <c r="E697" s="14" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F697" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G697" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H697" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I697" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J697" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K697" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L697" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M697" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" s="11">
+        <v>45557.788378564816</v>
+      </c>
+      <c r="B698" s="12" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C698" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D698" s="12">
+        <v>2.0202708E7</v>
+      </c>
+      <c r="E698" s="12" t="s">
+        <v>1503</v>
+      </c>
+      <c r="F698" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G698" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H698" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I698" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J698" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K698" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L698" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N698" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" s="13">
+        <v>45557.792070787036</v>
+      </c>
+      <c r="B699" s="14" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C699" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D699" s="14">
+        <v>2.0222327E7</v>
+      </c>
+      <c r="E699" s="14" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F699" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G699" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H699" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I699" s="14">
+        <v>2019.0</v>
+      </c>
+      <c r="J699" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K699" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L699" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N699" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" s="11">
+        <v>45557.795875752316</v>
+      </c>
+      <c r="B700" s="12" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C700" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D700" s="12">
+        <v>2.0243648E7</v>
+      </c>
+      <c r="E700" s="12" t="s">
+        <v>1507</v>
+      </c>
+      <c r="F700" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="G700" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H700" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I700" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J700" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K700" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L700" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N700" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" s="13">
+        <v>45557.79767344907</v>
+      </c>
+      <c r="B701" s="14" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C701" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="D701" s="14">
+        <v>2.0232238E7</v>
+      </c>
+      <c r="E701" s="14" t="s">
+        <v>1509</v>
+      </c>
+      <c r="F701" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G701" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H701" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I701" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J701" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K701" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L701" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N701" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" s="11">
+        <v>45557.797887037035</v>
+      </c>
+      <c r="B702" s="12" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C702" s="12" t="s">
+        <v>1511</v>
+      </c>
+      <c r="D702" s="12">
+        <v>2.0216514E7</v>
+      </c>
+      <c r="E702" s="12" t="s">
+        <v>1512</v>
+      </c>
+      <c r="F702" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G702" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H702" s="12">
+        <v>2022.0</v>
+      </c>
+      <c r="I702" s="12">
+        <v>2019.0</v>
+      </c>
+      <c r="J702" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K702" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L702" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N702" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" s="13">
+        <v>45557.79926400463</v>
+      </c>
+      <c r="B703" s="14" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C703" s="14" t="s">
+        <v>759</v>
+      </c>
+      <c r="D703" s="14">
+        <v>2.0202519E7</v>
+      </c>
+      <c r="E703" s="14" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F703" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G703" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H703" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I703" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J703" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K703" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L703" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M703" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" s="11">
+        <v>45557.79933094907</v>
+      </c>
+      <c r="B704" s="12" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C704" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D704" s="12">
+        <v>2.0241518E7</v>
+      </c>
+      <c r="E704" s="12" t="s">
+        <v>1516</v>
+      </c>
+      <c r="F704" s="12" t="s">
+        <v>309</v>
+      </c>
+      <c r="G704" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H704" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I704" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J704" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K704" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L704" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M704" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" s="13">
+        <v>45557.8041834375</v>
+      </c>
+      <c r="B705" s="14" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C705" s="14" t="s">
+        <v>258</v>
+      </c>
+      <c r="D705" s="14">
+        <v>2.0231025E7</v>
+      </c>
+      <c r="E705" s="14" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F705" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G705" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H705" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I705" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J705" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K705" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L705" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N705" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" s="11">
+        <v>45557.81259912037</v>
+      </c>
+      <c r="B706" s="12" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C706" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D706" s="12">
+        <v>2.0222361E7</v>
+      </c>
+      <c r="E706" s="12" t="s">
+        <v>1519</v>
+      </c>
+      <c r="F706" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G706" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H706" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I706" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J706" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K706" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L706" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N706" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" s="13">
+        <v>45557.81282116898</v>
+      </c>
+      <c r="B707" s="14" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C707" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D707" s="14">
+        <v>2.0243627E7</v>
+      </c>
+      <c r="E707" s="14" t="s">
+        <v>1521</v>
+      </c>
+      <c r="F707" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G707" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H707" s="14">
+        <v>2022.0</v>
+      </c>
+      <c r="I707" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J707" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K707" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L707" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N707" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" s="11">
+        <v>45557.814754074076</v>
+      </c>
+      <c r="B708" s="12" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C708" s="12" t="s">
+        <v>409</v>
+      </c>
+      <c r="D708" s="12">
+        <v>2.0246769E7</v>
+      </c>
+      <c r="E708" s="12" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F708" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G708" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H708" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I708" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J708" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K708" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L708" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N708" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" s="13">
+        <v>45557.817728877315</v>
+      </c>
+      <c r="B709" s="14" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C709" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="D709" s="14">
+        <v>2.0245268E7</v>
+      </c>
+      <c r="E709" s="14" t="s">
+        <v>1525</v>
+      </c>
+      <c r="F709" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G709" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H709" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I709" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J709" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="K709" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L709" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N709" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" s="11">
+        <v>45557.818451203704</v>
+      </c>
+      <c r="B710" s="12" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C710" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D710" s="12">
+        <v>2.0243432E7</v>
+      </c>
+      <c r="E710" s="12" t="s">
+        <v>1527</v>
+      </c>
+      <c r="F710" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G710" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H710" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I710" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J710" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K710" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L710" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M710" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" s="13">
+        <v>45557.82039104166</v>
+      </c>
+      <c r="B711" s="14" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C711" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="D711" s="14">
+        <v>2.0246262E7</v>
+      </c>
+      <c r="E711" s="14" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F711" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G711" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H711" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I711" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J711" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K711" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L711" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M711" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" s="11">
+        <v>45557.820830682875</v>
+      </c>
+      <c r="B712" s="12" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C712" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D712" s="12">
+        <v>2.024325E7</v>
+      </c>
+      <c r="E712" s="12" t="s">
+        <v>1501</v>
+      </c>
+      <c r="F712" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G712" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H712" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I712" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J712" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K712" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L712" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N712" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" s="13">
+        <v>45557.82672133102</v>
+      </c>
+      <c r="B713" s="14" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C713" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D713" s="14">
+        <v>2.0192736E7</v>
+      </c>
+      <c r="E713" s="14" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F713" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G713" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H713" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I713" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J713" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K713" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L713" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M713" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" s="11">
+        <v>45557.831728206016</v>
+      </c>
+      <c r="B714" s="12" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C714" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D714" s="12">
+        <v>2.0246301E7</v>
+      </c>
+      <c r="E714" s="12" t="s">
+        <v>1534</v>
+      </c>
+      <c r="F714" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G714" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H714" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I714" s="12">
+        <v>2021.0</v>
+      </c>
+      <c r="J714" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K714" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L714" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N714" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" s="13">
+        <v>45557.83179123842</v>
+      </c>
+      <c r="B715" s="14" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C715" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D715" s="14">
+        <v>2.0223022E7</v>
+      </c>
+      <c r="E715" s="14" t="s">
+        <v>602</v>
+      </c>
+      <c r="F715" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G715" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H715" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I715" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J715" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K715" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L715" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M715" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" s="11">
+        <v>45557.834859386574</v>
+      </c>
+      <c r="B716" s="12" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C716" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D716" s="12">
+        <v>2.0242513E7</v>
+      </c>
+      <c r="E716" s="12" t="s">
+        <v>1537</v>
+      </c>
+      <c r="F716" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G716" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H716" s="12">
+        <v>2022.0</v>
+      </c>
+      <c r="I716" s="12">
+        <v>2019.0</v>
+      </c>
+      <c r="J716" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K716" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L716" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M716" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" s="13">
+        <v>45557.83752541667</v>
+      </c>
+      <c r="B717" s="14" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C717" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="D717" s="14">
+        <v>2.0246614E7</v>
+      </c>
+      <c r="E717" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="F717" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G717" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H717" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I717" s="14">
+        <v>2019.0</v>
+      </c>
+      <c r="J717" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K717" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L717" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N717" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="11">
+        <v>45557.838905324075</v>
+      </c>
+      <c r="B718" s="12" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C718" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D718" s="12">
+        <v>2.0232726E7</v>
+      </c>
+      <c r="E718" s="12" t="s">
+        <v>1540</v>
+      </c>
+      <c r="F718" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G718" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H718" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I718" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J718" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K718" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L718" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M718" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="13">
+        <v>45557.84125880787</v>
+      </c>
+      <c r="B719" s="14" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C719" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D719" s="14">
+        <v>2.0227162E7</v>
+      </c>
+      <c r="E719" s="14" t="s">
+        <v>1542</v>
+      </c>
+      <c r="F719" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G719" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H719" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I719" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J719" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="K719" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L719" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N719" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="11">
+        <v>45557.8534446875</v>
+      </c>
+      <c r="B720" s="12" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C720" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D720" s="12">
+        <v>2.0182923E7</v>
+      </c>
+      <c r="E720" s="12" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F720" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G720" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H720" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I720" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J720" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K720" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L720" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M720" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="13">
+        <v>45557.85412164352</v>
+      </c>
+      <c r="B721" s="14" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C721" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="D721" s="14">
+        <v>2.0202324E7</v>
+      </c>
+      <c r="E721" s="14" t="s">
+        <v>1546</v>
+      </c>
+      <c r="F721" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G721" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H721" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I721" s="14">
+        <v>2018.0</v>
+      </c>
+      <c r="J721" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K721" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L721" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M721" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="11">
+        <v>45557.85419733796</v>
+      </c>
+      <c r="B722" s="12" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C722" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D722" s="12">
+        <v>2.0243844E7</v>
+      </c>
+      <c r="E722" s="12" t="s">
+        <v>1548</v>
+      </c>
+      <c r="F722" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G722" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H722" s="12">
+        <v>2022.0</v>
+      </c>
+      <c r="I722" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J722" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="K722" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L722" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M722" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="13">
+        <v>45557.8559825463</v>
+      </c>
+      <c r="B723" s="14" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C723" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D723" s="14">
+        <v>2.0222902E7</v>
+      </c>
+      <c r="E723" s="14" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F723" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G723" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H723" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I723" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J723" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K723" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L723" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N723" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="11">
+        <v>45557.86978875</v>
+      </c>
+      <c r="B724" s="12" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C724" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="D724" s="12">
+        <v>2.0201046E7</v>
+      </c>
+      <c r="E724" s="12" t="s">
+        <v>1552</v>
+      </c>
+      <c r="F724" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G724" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H724" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I724" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J724" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K724" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="L724" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M724" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="13">
+        <v>45557.870303958334</v>
+      </c>
+      <c r="B725" s="14" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C725" s="14" t="s">
+        <v>315</v>
+      </c>
+      <c r="D725" s="14">
+        <v>2.0246909E7</v>
+      </c>
+      <c r="E725" s="14" t="s">
+        <v>1554</v>
+      </c>
+      <c r="F725" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G725" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H725" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I725" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J725" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K725" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L725" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M725" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="11">
+        <v>45557.87169212963</v>
+      </c>
+      <c r="B726" s="12" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C726" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="D726" s="12">
+        <v>2.0217103E7</v>
+      </c>
+      <c r="E726" s="12" t="s">
+        <v>1556</v>
+      </c>
+      <c r="F726" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G726" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H726" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I726" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J726" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K726" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L726" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N726" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="13">
+        <v>45557.87433608796</v>
+      </c>
+      <c r="B727" s="14" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C727" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D727" s="14">
+        <v>2.0203635E7</v>
+      </c>
+      <c r="E727" s="14" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F727" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G727" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H727" s="14">
+        <v>2022.0</v>
+      </c>
+      <c r="I727" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J727" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K727" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="L727" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M727" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="11">
+        <v>45557.87819900463</v>
+      </c>
+      <c r="B728" s="12" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C728" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D728" s="12">
+        <v>2.0212736E7</v>
+      </c>
+      <c r="E728" s="12" t="s">
+        <v>1559</v>
+      </c>
+      <c r="F728" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G728" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H728" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I728" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J728" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K728" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L728" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N728" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="13">
+        <v>45557.88655311342</v>
+      </c>
+      <c r="B729" s="14" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C729" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D729" s="14">
+        <v>2.0202501E7</v>
+      </c>
+      <c r="E729" s="14" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F729" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="G729" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H729" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I729" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J729" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K729" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L729" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M729" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="11">
+        <v>45557.88684894676</v>
+      </c>
+      <c r="B730" s="12" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C730" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D730" s="12">
+        <v>2.0217096E7</v>
+      </c>
+      <c r="E730" s="12" t="s">
+        <v>674</v>
+      </c>
+      <c r="F730" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G730" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H730" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I730" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J730" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K730" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L730" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N730" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="13">
+        <v>45557.89071172454</v>
+      </c>
+      <c r="B731" s="14" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C731" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D731" s="14">
+        <v>2.0243235E7</v>
+      </c>
+      <c r="E731" s="14" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F731" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G731" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H731" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I731" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J731" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K731" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L731" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N731" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="11">
+        <v>45557.89412976852</v>
+      </c>
+      <c r="B732" s="12" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C732" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D732" s="12">
+        <v>2.0233048E7</v>
+      </c>
+      <c r="E732" s="12" t="s">
+        <v>1566</v>
+      </c>
+      <c r="F732" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G732" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H732" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I732" s="12">
+        <v>2018.0</v>
+      </c>
+      <c r="J732" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="K732" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L732" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N732" s="16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="13">
+        <v>45557.89873966435</v>
+      </c>
+      <c r="B733" s="14" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C733" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="D733" s="14">
+        <v>2.0242995E7</v>
+      </c>
+      <c r="E733" s="14" t="s">
+        <v>1568</v>
+      </c>
+      <c r="F733" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G733" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H733" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I733" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J733" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K733" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L733" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M733" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="11">
+        <v>45557.90595552084</v>
+      </c>
+      <c r="B734" s="12" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C734" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="D734" s="12">
+        <v>2.0246203E7</v>
+      </c>
+      <c r="E734" s="12" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F734" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="G734" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H734" s="12">
+        <v>2012.0</v>
+      </c>
+      <c r="I734" s="12">
+        <v>2019.0</v>
+      </c>
+      <c r="J734" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K734" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="L734" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M734" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="13">
+        <v>45557.90646775463</v>
+      </c>
+      <c r="B735" s="14" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C735" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D735" s="14">
+        <v>2.0212827E7</v>
+      </c>
+      <c r="E735" s="14" t="s">
+        <v>1572</v>
+      </c>
+      <c r="F735" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="G735" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H735" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I735" s="14">
+        <v>2019.0</v>
+      </c>
+      <c r="J735" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K735" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="L735" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M735" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="11">
+        <v>45557.90887895833</v>
+      </c>
+      <c r="B736" s="12" t="s">
+        <v>1573</v>
+      </c>
+      <c r="C736" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="D736" s="12">
+        <v>2.0243253E7</v>
+      </c>
+      <c r="E736" s="12" t="s">
+        <v>1574</v>
+      </c>
+      <c r="F736" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G736" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H736" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I736" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J736" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K736" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="L736" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M736" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="13">
+        <v>45557.90974130787</v>
+      </c>
+      <c r="B737" s="14" t="s">
+        <v>1575</v>
+      </c>
+      <c r="C737" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="D737" s="14">
+        <v>2.0243927E7</v>
+      </c>
+      <c r="E737" s="14" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F737" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G737" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H737" s="14">
+        <v>2017.0</v>
+      </c>
+      <c r="I737" s="14">
+        <v>2020.0</v>
+      </c>
+      <c r="J737" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="K737" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="L737" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="M737" s="14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="11">
+        <v>45557.91504475694</v>
+      </c>
+      <c r="B738" s="12" t="s">
+        <v>1577</v>
+      </c>
+      <c r="C738" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D738" s="12">
+        <v>2.022352E7</v>
+      </c>
+      <c r="E738" s="12" t="s">
+        <v>1578</v>
+      </c>
+      <c r="F738" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G738" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H738" s="12">
+        <v>2017.0</v>
+      </c>
+      <c r="I738" s="12">
+        <v>2020.0</v>
+      </c>
+      <c r="J738" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K738" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="L738" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M738" s="12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="17">
+        <v>45557.91654204861</v>
+      </c>
+      <c r="B739" s="18" t="s">
+        <v>1579</v>
+      </c>
+      <c r="C739" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D739" s="18">
+        <v>2.0233E7</v>
+      </c>
+      <c r="E739" s="18" t="s">
+        <v>1580</v>
+      </c>
+      <c r="F739" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G739" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H739" s="18">
+        <v>2012.0</v>
+      </c>
+      <c r="I739" s="18">
+        <v>2019.0</v>
+      </c>
+      <c r="J739" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K739" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="L739" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="M739" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
